--- a/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
+++ b/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20338"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SynologyDrive\J教学资料\课程设计\2022秋季组成原理课程设计\2022秋硬件综合训练课设资料发布包\cpu21-riscv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\803-113\Desktop\cpu-cjw\cpu21-riscv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D0AF84-3A1B-4246-8BE7-C73B84408BC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11610" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -22,12 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">控制信号表达式生成!$A$1:$AI$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">真值表!$A$1:$AK$25</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="130">
   <si>
     <t>#</t>
   </si>
@@ -66,9 +65,6 @@
   </si>
   <si>
     <t>JAL</t>
-  </si>
-  <si>
-    <t>XXX</t>
   </si>
   <si>
     <t>可增加列，自定义控制信号</t>
@@ -920,11 +916,71 @@
 注意显示逻辑需要考虑如何锁存过去的数据，否则数据一闪而过。</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRL</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUIPC</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBU</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLTU</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>1c</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>1b</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>1c</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSRRSI</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSRRCI</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>U_Type</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBU</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2143,28 +2199,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39994506668294322"/>
   </sheetPr>
   <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.58203125" style="18" customWidth="1"/>
-    <col min="3" max="4" width="10.58203125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="18" customWidth="1"/>
+    <col min="3" max="4" width="10.625" style="26" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="26" customWidth="1"/>
-    <col min="6" max="15" width="4.58203125" style="26" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" style="26" customWidth="1"/>
-    <col min="17" max="20" width="3.58203125" style="26" hidden="1" customWidth="1"/>
+    <col min="6" max="15" width="4.625" style="26" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="26" customWidth="1"/>
+    <col min="17" max="20" width="3.625" style="26" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="10.25" style="26" customWidth="1"/>
     <col min="22" max="22" width="9.25" style="26" customWidth="1"/>
-    <col min="23" max="23" width="10.58203125" style="26" customWidth="1"/>
+    <col min="23" max="23" width="10.625" style="26" customWidth="1"/>
     <col min="24" max="24" width="9.5" style="26" customWidth="1"/>
     <col min="25" max="26" width="9.25" style="26" customWidth="1"/>
     <col min="27" max="30" width="9" style="26" customWidth="1"/>
@@ -2172,7 +2228,7 @@
     <col min="33" max="39" width="9" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="17" customFormat="1" ht="27.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" s="17" customFormat="1" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -2180,43 +2236,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="H1" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="I1" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="J1" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="K1" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="L1" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="M1" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="N1" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="O1" s="43" t="s">
         <v>109</v>
-      </c>
-      <c r="O1" s="43" t="s">
-        <v>110</v>
       </c>
       <c r="P1" s="66" t="s">
         <v>2</v>
@@ -2240,16 +2296,16 @@
         <v>8</v>
       </c>
       <c r="W1" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X1" s="23" t="s">
         <v>9</v>
       </c>
       <c r="Y1" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z1" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA1" s="23" t="s">
         <v>10</v>
@@ -2258,113 +2314,119 @@
         <v>11</v>
       </c>
       <c r="AC1" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD1" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="25" t="s">
-        <v>74</v>
-      </c>
       <c r="AE1" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF1" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG1" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ1" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM1" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG1" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH1" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI1" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ1" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK1" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL1" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM1" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN1" s="17" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="35">
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="20" t="str">
+        <v>62</v>
+      </c>
+      <c r="C2" s="37">
+        <v>0</v>
+      </c>
+      <c r="D2" s="37">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="20">
         <f>IF(ISNUMBER($C2),IF(MOD($C2,64)/32&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="G2" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="G2" s="20">
         <f>IF(ISNUMBER($C2),IF(MOD($C2,2)&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="H2" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="H2" s="20">
         <f t="shared" ref="H2:H35" si="0">IF(ISNUMBER($D2),IF(MOD($D2,8)/4&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="I2" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20">
         <f t="shared" ref="I2:I35" si="1">IF(ISNUMBER($D2),IF(MOD($D2,4)/2&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="J2" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="J2" s="29">
         <f t="shared" ref="J2:J35" si="2">IF(ISNUMBER($D2),IF(MOD($D2,2)&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="K2" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="K2" s="36">
         <f t="shared" ref="K2:K35" si="3">IF(ISBLANK($E2),"",IF(MOD(HEX2DEC($E2),32)/16&gt;=1,1,0))</f>
-        <v/>
-      </c>
-      <c r="L2" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="L2" s="36">
         <f t="shared" ref="L2:L35" si="4">IF(ISBLANK($E2),"",IF(MOD(HEX2DEC($E2),16)/8&gt;=1,1,0))</f>
-        <v/>
-      </c>
-      <c r="M2" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="M2" s="36">
         <f t="shared" ref="M2:M35" si="5">IF(ISBLANK($E2),"",IF(MOD(HEX2DEC($E2),8)/4&gt;=1,1,0))</f>
-        <v/>
-      </c>
-      <c r="N2" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="N2" s="36">
         <f t="shared" ref="N2:N35" si="6">IF(ISBLANK($E2),"",IF(MOD(HEX2DEC($E2),4)/2&gt;=1,1,0))</f>
-        <v/>
-      </c>
-      <c r="O2" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O2" s="64">
         <f t="shared" ref="O2:O35" si="7">IF(ISBLANK($E2),"",IF(MOD(HEX2DEC($E2),2)&gt;=1,1,0))</f>
-        <v/>
-      </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P2" s="38">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="39">
         <f t="shared" ref="Q2:Q35" si="8">IF(ISNUMBER($P2),IF(MOD($P2,16)/8&gt;=1,1,0),"X")</f>
-        <v>X</v>
-      </c>
-      <c r="R2" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="R2" s="39">
         <f t="shared" ref="R2:R35" si="9">IF(ISNUMBER($P2),IF(MOD($P2,8)/4&gt;=1,1,0),"X")</f>
-        <v>X</v>
-      </c>
-      <c r="S2" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="S2" s="39">
         <f t="shared" ref="S2:S35" si="10">IF(ISNUMBER($P2),IF(MOD($P2,4)/2&gt;=1,1,0),"X")</f>
-        <v>X</v>
-      </c>
-      <c r="T2" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="T2" s="39">
         <f t="shared" ref="T2:T35" si="11">IF(ISNUMBER($P2),IF(MOD($P2,2)&gt;=1,1,0),"X")</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U2" s="31"/>
       <c r="V2" s="31"/>
       <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
+      <c r="X2" s="31">
+        <v>1</v>
+      </c>
       <c r="Y2" s="31"/>
       <c r="Z2" s="31"/>
       <c r="AA2" s="31"/>
@@ -2375,83 +2437,97 @@
       <c r="AF2" s="31"/>
       <c r="AG2" s="36"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
+      <c r="AI2" s="36">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="36">
+        <v>1</v>
+      </c>
       <c r="AK2" s="36"/>
       <c r="AL2" s="36"/>
       <c r="AM2" s="36"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="57">
         <v>2</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="59" t="str">
+        <v>76</v>
+      </c>
+      <c r="C3" s="44">
+        <v>32</v>
+      </c>
+      <c r="D3" s="59">
+        <v>0</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="59">
         <f t="shared" ref="F3:F61" si="12">IF(ISNUMBER($C3),IF(MOD($C3,64)/32&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="G3" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="G3" s="59">
         <f t="shared" ref="G3:G61" si="13">IF(ISNUMBER($C3),IF(MOD($C3,2)&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="H3" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="H3" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I3" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="I3" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J3" s="61" t="str">
+        <v>0</v>
+      </c>
+      <c r="J3" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K3" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="K3" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L3" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L3" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M3" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="M3" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N3" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="N3" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O3" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O3" s="65">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P3" s="62">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="63">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R3" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="R3" s="63">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S3" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="S3" s="63">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T3" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="T3" s="63">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="U3" s="57"/>
       <c r="V3" s="57"/>
       <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
+      <c r="X3" s="57">
+        <v>1</v>
+      </c>
       <c r="Y3" s="57"/>
       <c r="Z3" s="57"/>
       <c r="AA3" s="57"/>
@@ -2462,83 +2538,97 @@
       <c r="AF3" s="57"/>
       <c r="AG3" s="58"/>
       <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
+      <c r="AI3" s="58">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="58">
+        <v>1</v>
+      </c>
       <c r="AK3" s="58"/>
       <c r="AL3" s="58"/>
       <c r="AM3" s="58"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="35">
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="20" t="str">
+        <v>77</v>
+      </c>
+      <c r="C4" s="37">
+        <v>0</v>
+      </c>
+      <c r="D4" s="37">
+        <v>7</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="20">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G4" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="G4" s="20">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H4" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="I4" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J4" s="29" t="str">
+        <v>1</v>
+      </c>
+      <c r="J4" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K4" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="K4" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L4" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="L4" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M4" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="M4" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N4" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="N4" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O4" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O4" s="64">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P4" s="38">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="39">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R4" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="R4" s="39">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S4" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="S4" s="39">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T4" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="T4" s="39">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U4" s="31"/>
       <c r="V4" s="31"/>
       <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
+      <c r="X4" s="31">
+        <v>1</v>
+      </c>
       <c r="Y4" s="31"/>
       <c r="Z4" s="31"/>
       <c r="AA4" s="31"/>
@@ -2549,83 +2639,97 @@
       <c r="AF4" s="31"/>
       <c r="AG4" s="36"/>
       <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
+      <c r="AI4" s="36">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="36">
+        <v>1</v>
+      </c>
       <c r="AK4" s="36"/>
       <c r="AL4" s="36"/>
       <c r="AM4" s="36"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="57">
         <v>4</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="59" t="str">
+        <v>78</v>
+      </c>
+      <c r="C5" s="44">
+        <v>0</v>
+      </c>
+      <c r="D5" s="59">
+        <v>6</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="59">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G5" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="G5" s="59">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H5" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="H5" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I5" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="I5" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J5" s="61" t="str">
+        <v>1</v>
+      </c>
+      <c r="J5" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K5" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="K5" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L5" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L5" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M5" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="M5" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N5" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="N5" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O5" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O5" s="65">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P5" s="62">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="63">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R5" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="R5" s="63">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S5" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="S5" s="63">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T5" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="T5" s="63">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="U5" s="57"/>
       <c r="V5" s="57"/>
       <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
+      <c r="X5" s="57">
+        <v>1</v>
+      </c>
       <c r="Y5" s="57"/>
       <c r="Z5" s="57"/>
       <c r="AA5" s="57"/>
@@ -2636,83 +2740,97 @@
       <c r="AF5" s="57"/>
       <c r="AG5" s="58"/>
       <c r="AH5" s="58"/>
-      <c r="AI5" s="58"/>
-      <c r="AJ5" s="58"/>
+      <c r="AI5" s="58">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="58">
+        <v>1</v>
+      </c>
       <c r="AK5" s="58"/>
       <c r="AL5" s="58"/>
       <c r="AM5" s="58"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="35">
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="20" t="str">
+        <v>63</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0</v>
+      </c>
+      <c r="D6" s="37">
+        <v>2</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="20">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G6" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H6" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I6" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J6" s="29" t="str">
+        <v>1</v>
+      </c>
+      <c r="J6" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K6" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="K6" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L6" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="L6" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M6" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="M6" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N6" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="N6" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O6" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O6" s="64">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P6" s="38">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="39">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R6" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="R6" s="39">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S6" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="S6" s="39">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T6" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="T6" s="39">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U6" s="31"/>
       <c r="V6" s="31"/>
       <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
+      <c r="X6" s="31">
+        <v>1</v>
+      </c>
       <c r="Y6" s="31"/>
       <c r="Z6" s="31"/>
       <c r="AA6" s="31"/>
@@ -2723,83 +2841,97 @@
       <c r="AF6" s="31"/>
       <c r="AG6" s="36"/>
       <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
+      <c r="AI6" s="36">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="36">
+        <v>1</v>
+      </c>
       <c r="AK6" s="36"/>
       <c r="AL6" s="36"/>
       <c r="AM6" s="36"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="57">
         <v>6</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="59" t="str">
+        <v>79</v>
+      </c>
+      <c r="C7" s="44">
+        <v>0</v>
+      </c>
+      <c r="D7" s="59">
+        <v>3</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="59">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G7" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="G7" s="59">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H7" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="H7" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I7" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="I7" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J7" s="61" t="str">
+        <v>1</v>
+      </c>
+      <c r="J7" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K7" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="K7" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L7" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L7" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M7" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="M7" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N7" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="N7" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O7" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O7" s="65">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P7" s="62">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="63">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R7" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="R7" s="63">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S7" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="S7" s="63">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T7" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="T7" s="63">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="U7" s="57"/>
       <c r="V7" s="57"/>
       <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
+      <c r="X7" s="57">
+        <v>1</v>
+      </c>
       <c r="Y7" s="57"/>
       <c r="Z7" s="57"/>
       <c r="AA7" s="57"/>
@@ -2810,22 +2942,30 @@
       <c r="AF7" s="57"/>
       <c r="AG7" s="58"/>
       <c r="AH7" s="58"/>
-      <c r="AI7" s="58"/>
-      <c r="AJ7" s="58"/>
+      <c r="AI7" s="58">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="58">
+        <v>1</v>
+      </c>
       <c r="AK7" s="58"/>
       <c r="AL7" s="58"/>
       <c r="AM7" s="58"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" s="35">
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="37">
+        <v>0</v>
+      </c>
+      <c r="E8" s="29">
+        <v>4</v>
+      </c>
       <c r="F8" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -2834,59 +2974,65 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H8" s="20" t="str">
+      <c r="H8" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I8" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J8" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K8" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="K8" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L8" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="L8" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M8" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="M8" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N8" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="N8" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O8" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O8" s="64">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P8" s="38">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="39">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R8" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="R8" s="39">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S8" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="S8" s="39">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T8" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="T8" s="39">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U8" s="31"/>
       <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
+      <c r="W8" s="31">
+        <v>1</v>
+      </c>
+      <c r="X8" s="31">
+        <v>1</v>
+      </c>
       <c r="Y8" s="31"/>
       <c r="Z8" s="31"/>
       <c r="AA8" s="31"/>
@@ -2897,22 +3043,28 @@
       <c r="AF8" s="31"/>
       <c r="AG8" s="36"/>
       <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
+      <c r="AI8" s="36">
+        <v>1</v>
+      </c>
       <c r="AJ8" s="36"/>
       <c r="AK8" s="36"/>
       <c r="AL8" s="36"/>
       <c r="AM8" s="36"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="57">
         <v>8</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="44"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="61"/>
+      <c r="D9" s="59">
+        <v>7</v>
+      </c>
+      <c r="E9" s="61">
+        <v>4</v>
+      </c>
       <c r="F9" s="59" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -2921,59 +3073,65 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H9" s="59" t="str">
+      <c r="H9" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I9" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="I9" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J9" s="61" t="str">
+        <v>1</v>
+      </c>
+      <c r="J9" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K9" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="K9" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L9" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L9" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M9" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="M9" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N9" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="N9" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O9" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O9" s="65">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P9" s="62">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="63">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R9" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="R9" s="63">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S9" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="S9" s="63">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T9" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="T9" s="63">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U9" s="57"/>
       <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
+      <c r="W9" s="57">
+        <v>1</v>
+      </c>
+      <c r="X9" s="57">
+        <v>1</v>
+      </c>
       <c r="Y9" s="57"/>
       <c r="Z9" s="57"/>
       <c r="AA9" s="57"/>
@@ -2984,22 +3142,28 @@
       <c r="AF9" s="57"/>
       <c r="AG9" s="58"/>
       <c r="AH9" s="58"/>
-      <c r="AI9" s="58"/>
+      <c r="AI9" s="58">
+        <v>1</v>
+      </c>
       <c r="AJ9" s="58"/>
       <c r="AK9" s="58"/>
       <c r="AL9" s="58"/>
       <c r="AM9" s="58"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="35">
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="29"/>
+      <c r="D10" s="37">
+        <v>6</v>
+      </c>
+      <c r="E10" s="29">
+        <v>4</v>
+      </c>
       <c r="F10" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3008,59 +3172,65 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H10" s="20" t="str">
+      <c r="H10" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I10" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="I10" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J10" s="29" t="str">
+        <v>1</v>
+      </c>
+      <c r="J10" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K10" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="K10" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L10" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="L10" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M10" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="M10" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N10" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="N10" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O10" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O10" s="64">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P10" s="38">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="39">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R10" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="R10" s="39">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S10" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="S10" s="39">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T10" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="T10" s="39">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="U10" s="31"/>
       <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
+      <c r="W10" s="31">
+        <v>1</v>
+      </c>
+      <c r="X10" s="31">
+        <v>1</v>
+      </c>
       <c r="Y10" s="31"/>
       <c r="Z10" s="31"/>
       <c r="AA10" s="31"/>
@@ -3071,22 +3241,28 @@
       <c r="AF10" s="31"/>
       <c r="AG10" s="36"/>
       <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
+      <c r="AI10" s="36">
+        <v>1</v>
+      </c>
       <c r="AJ10" s="36"/>
       <c r="AK10" s="36"/>
       <c r="AL10" s="36"/>
       <c r="AM10" s="36"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="57">
         <v>10</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="44"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="61"/>
+      <c r="D11" s="59">
+        <v>4</v>
+      </c>
+      <c r="E11" s="61">
+        <v>4</v>
+      </c>
       <c r="F11" s="59" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3095,59 +3271,65 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H11" s="59" t="str">
+      <c r="H11" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="I11" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J11" s="61" t="str">
+        <v>0</v>
+      </c>
+      <c r="J11" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K11" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="K11" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L11" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L11" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M11" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="M11" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N11" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="N11" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O11" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O11" s="65">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P11" s="62">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="63">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R11" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="R11" s="63">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S11" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="S11" s="63">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T11" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="T11" s="63">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U11" s="57"/>
       <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
+      <c r="W11" s="57">
+        <v>1</v>
+      </c>
+      <c r="X11" s="57">
+        <v>1</v>
+      </c>
       <c r="Y11" s="57"/>
       <c r="Z11" s="57"/>
       <c r="AA11" s="57"/>
@@ -3158,22 +3340,28 @@
       <c r="AF11" s="57"/>
       <c r="AG11" s="58"/>
       <c r="AH11" s="58"/>
-      <c r="AI11" s="58"/>
+      <c r="AI11" s="58">
+        <v>1</v>
+      </c>
       <c r="AJ11" s="58"/>
       <c r="AK11" s="58"/>
       <c r="AL11" s="58"/>
       <c r="AM11" s="58"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="35">
         <v>11</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="29"/>
+      <c r="D12" s="37">
+        <v>2</v>
+      </c>
+      <c r="E12" s="29">
+        <v>4</v>
+      </c>
       <c r="F12" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3182,59 +3370,65 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H12" s="20" t="str">
+      <c r="H12" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I12" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I12" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J12" s="29" t="str">
+        <v>1</v>
+      </c>
+      <c r="J12" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K12" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="K12" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L12" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="L12" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M12" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="M12" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N12" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="N12" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O12" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O12" s="64">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P12" s="38">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="39">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R12" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="R12" s="39">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S12" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="S12" s="39">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T12" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="T12" s="39">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U12" s="31"/>
       <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
+      <c r="W12" s="31">
+        <v>1</v>
+      </c>
+      <c r="X12" s="31">
+        <v>1</v>
+      </c>
       <c r="Y12" s="31"/>
       <c r="Z12" s="31"/>
       <c r="AA12" s="31"/>
@@ -3245,83 +3439,97 @@
       <c r="AF12" s="31"/>
       <c r="AG12" s="36"/>
       <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
+      <c r="AI12" s="36">
+        <v>1</v>
+      </c>
       <c r="AJ12" s="36"/>
       <c r="AK12" s="36"/>
       <c r="AL12" s="36"/>
       <c r="AM12" s="36"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="57">
         <v>12</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="59" t="str">
+        <v>85</v>
+      </c>
+      <c r="C13" s="44">
+        <v>0</v>
+      </c>
+      <c r="D13" s="59">
+        <v>1</v>
+      </c>
+      <c r="E13" s="61">
+        <v>4</v>
+      </c>
+      <c r="F13" s="59">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G13" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="G13" s="59">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H13" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="H13" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I13" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="I13" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J13" s="61" t="str">
+        <v>0</v>
+      </c>
+      <c r="J13" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K13" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="K13" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L13" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L13" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M13" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="M13" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N13" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="N13" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O13" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O13" s="65">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P13" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="63">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R13" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="R13" s="63">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S13" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="S13" s="63">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T13" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="T13" s="63">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="U13" s="57"/>
       <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
+      <c r="W13" s="57">
+        <v>1</v>
+      </c>
+      <c r="X13" s="57">
+        <v>1</v>
+      </c>
       <c r="Y13" s="57"/>
       <c r="Z13" s="57"/>
       <c r="AA13" s="57"/>
@@ -3332,83 +3540,97 @@
       <c r="AF13" s="57"/>
       <c r="AG13" s="58"/>
       <c r="AH13" s="58"/>
-      <c r="AI13" s="58"/>
+      <c r="AI13" s="58">
+        <v>1</v>
+      </c>
       <c r="AJ13" s="58"/>
       <c r="AK13" s="58"/>
       <c r="AL13" s="58"/>
       <c r="AM13" s="58"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="35">
         <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="20" t="str">
+        <v>86</v>
+      </c>
+      <c r="C14" s="37">
+        <v>0</v>
+      </c>
+      <c r="D14" s="37">
+        <v>5</v>
+      </c>
+      <c r="E14" s="29">
+        <v>4</v>
+      </c>
+      <c r="F14" s="20">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G14" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H14" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I14" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="I14" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J14" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K14" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="K14" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L14" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="L14" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M14" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="M14" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N14" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="N14" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O14" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O14" s="64">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P14" s="38">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="39">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R14" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="R14" s="39">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S14" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="S14" s="39">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T14" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="T14" s="39">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="U14" s="31"/>
       <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
+      <c r="W14" s="31">
+        <v>1</v>
+      </c>
+      <c r="X14" s="31">
+        <v>1</v>
+      </c>
       <c r="Y14" s="31"/>
       <c r="Z14" s="31"/>
       <c r="AA14" s="31"/>
@@ -3419,83 +3641,97 @@
       <c r="AF14" s="31"/>
       <c r="AG14" s="36"/>
       <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
+      <c r="AI14" s="36">
+        <v>1</v>
+      </c>
       <c r="AJ14" s="36"/>
       <c r="AK14" s="36"/>
       <c r="AL14" s="36"/>
       <c r="AM14" s="36"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="57">
         <v>14</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="59" t="str">
+        <v>87</v>
+      </c>
+      <c r="C15" s="44">
+        <v>32</v>
+      </c>
+      <c r="D15" s="59">
+        <v>5</v>
+      </c>
+      <c r="E15" s="61">
+        <v>4</v>
+      </c>
+      <c r="F15" s="59">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G15" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="G15" s="59">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H15" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="H15" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I15" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="I15" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J15" s="61" t="str">
+        <v>0</v>
+      </c>
+      <c r="J15" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K15" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="K15" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L15" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L15" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M15" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="M15" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N15" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="N15" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O15" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O15" s="65">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P15" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="63">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R15" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="R15" s="63">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S15" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="S15" s="63">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T15" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="T15" s="63">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U15" s="57"/>
       <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
+      <c r="W15" s="57">
+        <v>1</v>
+      </c>
+      <c r="X15" s="57">
+        <v>1</v>
+      </c>
       <c r="Y15" s="57"/>
       <c r="Z15" s="57"/>
       <c r="AA15" s="57"/>
@@ -3506,22 +3742,28 @@
       <c r="AF15" s="57"/>
       <c r="AG15" s="58"/>
       <c r="AH15" s="58"/>
-      <c r="AI15" s="58"/>
+      <c r="AI15" s="58">
+        <v>1</v>
+      </c>
       <c r="AJ15" s="58"/>
       <c r="AK15" s="58"/>
       <c r="AL15" s="58"/>
       <c r="AM15" s="58"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="35">
         <v>15</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="29"/>
+      <c r="D16" s="37">
+        <v>2</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0</v>
+      </c>
       <c r="F16" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3530,59 +3772,67 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H16" s="20" t="str">
+      <c r="H16" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I16" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I16" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J16" s="29" t="str">
+        <v>1</v>
+      </c>
+      <c r="J16" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K16" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="K16" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L16" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="L16" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M16" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="M16" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N16" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="N16" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O16" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O16" s="64">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P16" s="38">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="39">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R16" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="R16" s="39">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S16" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="S16" s="39">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T16" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="T16" s="39">
         <f t="shared" si="11"/>
-        <v>X</v>
-      </c>
-      <c r="U16" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="U16" s="31">
+        <v>1</v>
+      </c>
       <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
+      <c r="W16" s="31">
+        <v>1</v>
+      </c>
+      <c r="X16" s="31">
+        <v>1</v>
+      </c>
       <c r="Y16" s="31"/>
       <c r="Z16" s="31"/>
       <c r="AA16" s="31"/>
@@ -3593,22 +3843,28 @@
       <c r="AF16" s="31"/>
       <c r="AG16" s="36"/>
       <c r="AH16" s="36"/>
-      <c r="AI16" s="36"/>
+      <c r="AI16" s="36">
+        <v>1</v>
+      </c>
       <c r="AJ16" s="36"/>
       <c r="AK16" s="36"/>
       <c r="AL16" s="36"/>
       <c r="AM16" s="36"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="57">
         <v>16</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="44"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="61"/>
+      <c r="D17" s="59">
+        <v>2</v>
+      </c>
+      <c r="E17" s="61">
+        <v>8</v>
+      </c>
       <c r="F17" s="59" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3617,61 +3873,69 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H17" s="59" t="str">
+      <c r="H17" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I17" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="I17" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J17" s="61" t="str">
+        <v>1</v>
+      </c>
+      <c r="J17" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K17" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="K17" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L17" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L17" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M17" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="M17" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N17" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="N17" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O17" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O17" s="65">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P17" s="62">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="63">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R17" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="R17" s="63">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S17" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="S17" s="63">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T17" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="T17" s="63">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
+      <c r="V17" s="57">
+        <v>1</v>
+      </c>
+      <c r="W17" s="57">
+        <v>1</v>
+      </c>
       <c r="X17" s="57"/>
       <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
+      <c r="Z17" s="57">
+        <v>1</v>
+      </c>
       <c r="AA17" s="57"/>
       <c r="AB17" s="57"/>
       <c r="AC17" s="57"/>
@@ -3680,61 +3944,71 @@
       <c r="AF17" s="57"/>
       <c r="AG17" s="58"/>
       <c r="AH17" s="58"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
+      <c r="AI17" s="58">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="58">
+        <v>1</v>
+      </c>
       <c r="AK17" s="58"/>
       <c r="AL17" s="58"/>
       <c r="AM17" s="58"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="35">
         <v>17</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="20" t="str">
+        <v>65</v>
+      </c>
+      <c r="C18" s="37">
+        <v>0</v>
+      </c>
+      <c r="D18" s="37">
+        <v>0</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="20">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G18" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="G18" s="20">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H18" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="H18" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I18" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I18" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J18" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="J18" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K18" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="K18" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L18" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="L18" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M18" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="M18" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N18" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="N18" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O18" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O18" s="64">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P18" s="38"/>
       <c r="Q18" s="39" t="str">
@@ -3757,7 +4031,9 @@
       <c r="V18" s="31"/>
       <c r="W18" s="31"/>
       <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
+      <c r="Y18" s="31">
+        <v>1</v>
+      </c>
       <c r="Z18" s="31"/>
       <c r="AA18" s="31"/>
       <c r="AB18" s="31"/>
@@ -3767,22 +4043,30 @@
       <c r="AF18" s="31"/>
       <c r="AG18" s="36"/>
       <c r="AH18" s="36"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="36"/>
+      <c r="AI18" s="36">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="36">
+        <v>1</v>
+      </c>
       <c r="AK18" s="36"/>
       <c r="AL18" s="36"/>
       <c r="AM18" s="36"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="57">
         <v>18</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="44"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="61"/>
+      <c r="D19" s="59">
+        <v>0</v>
+      </c>
+      <c r="E19" s="61">
+        <v>18</v>
+      </c>
       <c r="F19" s="59" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3791,54 +4075,56 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H19" s="59" t="str">
+      <c r="H19" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I19" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="I19" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J19" s="61" t="str">
+        <v>0</v>
+      </c>
+      <c r="J19" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K19" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="K19" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L19" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="L19" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M19" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="M19" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N19" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="N19" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O19" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O19" s="65">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P19" s="62">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="63">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R19" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="R19" s="63">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S19" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="S19" s="63">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T19" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="T19" s="63">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U19" s="57"/>
       <c r="V19" s="57"/>
@@ -3846,7 +4132,9 @@
       <c r="X19" s="57"/>
       <c r="Y19" s="57"/>
       <c r="Z19" s="57"/>
-      <c r="AA19" s="57"/>
+      <c r="AA19" s="57">
+        <v>1</v>
+      </c>
       <c r="AB19" s="57"/>
       <c r="AC19" s="57"/>
       <c r="AD19" s="57"/>
@@ -3854,22 +4142,30 @@
       <c r="AF19" s="57"/>
       <c r="AG19" s="58"/>
       <c r="AH19" s="58"/>
-      <c r="AI19" s="58"/>
-      <c r="AJ19" s="58"/>
+      <c r="AI19" s="58">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="58">
+        <v>1</v>
+      </c>
       <c r="AK19" s="58"/>
       <c r="AL19" s="58"/>
       <c r="AM19" s="58"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="35">
         <v>19</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="29"/>
+      <c r="D20" s="37">
+        <v>1</v>
+      </c>
+      <c r="E20" s="29">
+        <v>18</v>
+      </c>
       <c r="F20" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3878,54 +4174,56 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H20" s="20" t="str">
+      <c r="H20" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I20" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I20" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J20" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="J20" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K20" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="K20" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L20" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="L20" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M20" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="M20" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N20" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="N20" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O20" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O20" s="64">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P20" s="38">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="39">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R20" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="R20" s="39">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S20" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="S20" s="39">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T20" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="T20" s="39">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U20" s="31"/>
       <c r="V20" s="31"/>
@@ -3934,29 +4232,37 @@
       <c r="Y20" s="31"/>
       <c r="Z20" s="31"/>
       <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
+      <c r="AB20" s="31">
+        <v>1</v>
+      </c>
       <c r="AC20" s="31"/>
       <c r="AD20" s="31"/>
       <c r="AE20" s="31"/>
       <c r="AF20" s="31"/>
       <c r="AG20" s="36"/>
       <c r="AH20" s="36"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="36"/>
+      <c r="AI20" s="36">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="36">
+        <v>1</v>
+      </c>
       <c r="AK20" s="36"/>
       <c r="AL20" s="36"/>
       <c r="AM20" s="36"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="57">
         <v>20</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="44"/>
       <c r="D21" s="59"/>
-      <c r="E21" s="61"/>
+      <c r="E21" s="61" t="s">
+        <v>122</v>
+      </c>
       <c r="F21" s="59" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3977,52 +4283,58 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K21" s="60" t="str">
+      <c r="K21" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L21" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="L21" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M21" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="M21" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N21" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="N21" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O21" s="65" t="str">
+        <v>1</v>
+      </c>
+      <c r="O21" s="65">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="P21" s="62">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="63">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R21" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="R21" s="63">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S21" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="S21" s="63">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T21" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="T21" s="63">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U21" s="57"/>
       <c r="V21" s="57"/>
       <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
+      <c r="X21" s="57">
+        <v>1</v>
+      </c>
       <c r="Y21" s="57"/>
       <c r="Z21" s="57"/>
       <c r="AA21" s="57"/>
       <c r="AB21" s="57"/>
-      <c r="AC21" s="57"/>
+      <c r="AC21" s="57">
+        <v>1</v>
+      </c>
       <c r="AD21" s="57"/>
       <c r="AE21" s="57"/>
       <c r="AF21" s="57"/>
@@ -4034,16 +4346,20 @@
       <c r="AL21" s="58"/>
       <c r="AM21" s="58"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="35">
         <v>21</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="29"/>
+      <c r="D22" s="37">
+        <v>0</v>
+      </c>
+      <c r="E22" s="29">
+        <v>19</v>
+      </c>
       <c r="F22" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4052,85 +4368,99 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H22" s="20" t="str">
+      <c r="H22" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I22" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I22" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J22" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="J22" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K22" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="K22" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L22" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="L22" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M22" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="M22" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N22" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="N22" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O22" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O22" s="64">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="P22" s="38">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="39">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R22" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="R22" s="39">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S22" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="S22" s="39">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T22" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="T22" s="39">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U22" s="31"/>
       <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
+      <c r="W22" s="31">
+        <v>1</v>
+      </c>
+      <c r="X22" s="31">
+        <v>1</v>
+      </c>
       <c r="Y22" s="31"/>
       <c r="Z22" s="31"/>
       <c r="AA22" s="31"/>
       <c r="AB22" s="31"/>
       <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
+      <c r="AD22" s="31">
+        <v>1</v>
+      </c>
       <c r="AE22" s="31"/>
       <c r="AF22" s="31"/>
       <c r="AG22" s="36"/>
       <c r="AH22" s="36"/>
-      <c r="AI22" s="36"/>
+      <c r="AI22" s="36">
+        <v>1</v>
+      </c>
       <c r="AJ22" s="36"/>
       <c r="AK22" s="36"/>
       <c r="AL22" s="36"/>
       <c r="AM22" s="36"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="57">
         <v>22</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="44"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="61"/>
+      <c r="D23" s="59">
+        <v>6</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>123</v>
+      </c>
       <c r="F23" s="59" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4139,37 +4469,37 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H23" s="59" t="str">
+      <c r="H23" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I23" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="I23" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J23" s="61" t="str">
+        <v>1</v>
+      </c>
+      <c r="J23" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K23" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="K23" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L23" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="L23" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M23" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="M23" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N23" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="N23" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O23" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O23" s="65">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P23" s="62"/>
       <c r="Q23" s="63" t="str">
@@ -4205,19 +4535,25 @@
       <c r="AI23" s="58"/>
       <c r="AJ23" s="58"/>
       <c r="AK23" s="58"/>
-      <c r="AL23" s="58"/>
+      <c r="AL23" s="58">
+        <v>1</v>
+      </c>
       <c r="AM23" s="58"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="35">
         <v>23</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="29"/>
+      <c r="D24" s="37">
+        <v>7</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>123</v>
+      </c>
       <c r="F24" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4226,37 +4562,37 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H24" s="20" t="str">
+      <c r="H24" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I24" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="I24" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J24" s="29" t="str">
+        <v>1</v>
+      </c>
+      <c r="J24" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K24" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="K24" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L24" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="L24" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M24" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="M24" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N24" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="N24" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O24" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O24" s="64">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P24" s="38"/>
       <c r="Q24" s="39" t="str">
@@ -4293,57 +4629,65 @@
       <c r="AJ24" s="36"/>
       <c r="AK24" s="36"/>
       <c r="AL24" s="36"/>
-      <c r="AM24" s="36"/>
+      <c r="AM24" s="36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="57">
         <v>24</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="59" t="str">
+        <v>113</v>
+      </c>
+      <c r="C25" s="44">
+        <v>2</v>
+      </c>
+      <c r="D25" s="59">
+        <v>0</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="59">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G25" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="G25" s="59">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H25" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="H25" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I25" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="I25" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J25" s="61" t="str">
+        <v>0</v>
+      </c>
+      <c r="J25" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K25" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="K25" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L25" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="L25" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M25" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="M25" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N25" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="N25" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O25" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O25" s="65">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P25" s="62"/>
       <c r="Q25" s="63" t="str">
@@ -4366,7 +4710,9 @@
       <c r="V25" s="57"/>
       <c r="W25" s="57"/>
       <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
+      <c r="Y25" s="57">
+        <v>1</v>
+      </c>
       <c r="Z25" s="57"/>
       <c r="AA25" s="57"/>
       <c r="AB25" s="57"/>
@@ -4382,75 +4728,87 @@
       <c r="AL25" s="58"/>
       <c r="AM25" s="58"/>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="35">
         <v>25</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="20" t="str">
+      <c r="B26" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="37">
+        <v>0</v>
+      </c>
+      <c r="D26" s="37">
+        <v>5</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="20">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G26" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="G26" s="20">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H26" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="H26" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I26" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="I26" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J26" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="J26" s="29">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K26" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="K26" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L26" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="L26" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M26" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="M26" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N26" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="N26" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O26" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O26" s="64">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="P26" s="38">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="39">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R26" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="R26" s="39">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S26" s="39" t="str">
+        <v>0</v>
+      </c>
+      <c r="S26" s="39">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T26" s="39" t="str">
+        <v>1</v>
+      </c>
+      <c r="T26" s="39">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="U26" s="31"/>
       <c r="V26" s="31"/>
       <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
+      <c r="X26" s="31">
+        <v>1</v>
+      </c>
       <c r="Y26" s="31"/>
       <c r="Z26" s="31"/>
       <c r="AA26" s="31"/>
@@ -4461,20 +4819,28 @@
       <c r="AF26" s="31"/>
       <c r="AG26" s="36"/>
       <c r="AH26" s="36"/>
-      <c r="AI26" s="36"/>
-      <c r="AJ26" s="36"/>
+      <c r="AI26" s="36">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="36">
+        <v>1</v>
+      </c>
       <c r="AK26" s="36"/>
       <c r="AL26" s="36"/>
       <c r="AM26" s="36"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="57">
         <v>26</v>
       </c>
-      <c r="B27" s="57"/>
+      <c r="B27" s="57" t="s">
+        <v>117</v>
+      </c>
       <c r="C27" s="44"/>
       <c r="D27" s="59"/>
-      <c r="E27" s="61"/>
+      <c r="E27" s="61">
+        <v>5</v>
+      </c>
       <c r="F27" s="59" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4495,25 +4861,25 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K27" s="60" t="str">
+      <c r="K27" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L27" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="L27" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M27" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="M27" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N27" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="N27" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O27" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O27" s="65">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P27" s="62"/>
       <c r="Q27" s="63" t="str">
@@ -4535,7 +4901,9 @@
       <c r="U27" s="57"/>
       <c r="V27" s="57"/>
       <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
+      <c r="X27" s="57">
+        <v>1</v>
+      </c>
       <c r="Y27" s="57"/>
       <c r="Z27" s="57"/>
       <c r="AA27" s="57"/>
@@ -4543,7 +4911,9 @@
       <c r="AC27" s="57"/>
       <c r="AD27" s="57"/>
       <c r="AE27" s="57"/>
-      <c r="AF27" s="57"/>
+      <c r="AF27" s="57">
+        <v>1</v>
+      </c>
       <c r="AG27" s="58"/>
       <c r="AH27" s="58"/>
       <c r="AI27" s="58"/>
@@ -4552,14 +4922,18 @@
       <c r="AL27" s="58"/>
       <c r="AM27" s="58"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="35">
         <v>27</v>
       </c>
-      <c r="B28" s="31"/>
+      <c r="B28" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="29"/>
+      <c r="E28" s="29">
+        <v>0</v>
+      </c>
       <c r="F28" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4580,25 +4954,25 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K28" s="36" t="str">
+      <c r="K28" s="36">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L28" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="L28" s="36">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M28" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="M28" s="36">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N28" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="N28" s="36">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O28" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O28" s="64">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P28" s="38"/>
       <c r="Q28" s="39" t="str">
@@ -4617,10 +4991,16 @@
         <f t="shared" si="11"/>
         <v>X</v>
       </c>
-      <c r="U28" s="31"/>
+      <c r="U28" s="31">
+        <v>1</v>
+      </c>
       <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
+      <c r="W28" s="31">
+        <v>1</v>
+      </c>
+      <c r="X28" s="31">
+        <v>1</v>
+      </c>
       <c r="Y28" s="31"/>
       <c r="Z28" s="31"/>
       <c r="AA28" s="31"/>
@@ -4629,22 +5009,32 @@
       <c r="AD28" s="31"/>
       <c r="AE28" s="31"/>
       <c r="AF28" s="31"/>
-      <c r="AG28" s="36"/>
+      <c r="AG28" s="36">
+        <v>1</v>
+      </c>
       <c r="AH28" s="36"/>
-      <c r="AI28" s="36"/>
+      <c r="AI28" s="36">
+        <v>1</v>
+      </c>
       <c r="AJ28" s="36"/>
       <c r="AK28" s="36"/>
       <c r="AL28" s="36"/>
       <c r="AM28" s="36"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="57">
         <v>28</v>
       </c>
-      <c r="B29" s="57"/>
+      <c r="B29" s="57" t="s">
+        <v>119</v>
+      </c>
       <c r="C29" s="44"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="61"/>
+      <c r="D29" s="59">
+        <v>6</v>
+      </c>
+      <c r="E29" s="61">
+        <v>18</v>
+      </c>
       <c r="F29" s="59" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4653,54 +5043,56 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H29" s="59" t="str">
+      <c r="H29" s="59">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I29" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="I29" s="59">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J29" s="61" t="str">
+        <v>1</v>
+      </c>
+      <c r="J29" s="61">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K29" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="K29" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L29" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="L29" s="60">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M29" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="M29" s="60">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N29" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="N29" s="60">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O29" s="65" t="str">
+        <v>0</v>
+      </c>
+      <c r="O29" s="65">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="P29" s="62">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="63">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R29" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="R29" s="63">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S29" s="63" t="str">
+        <v>1</v>
+      </c>
+      <c r="S29" s="63">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T29" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="T29" s="63">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="U29" s="57"/>
       <c r="V29" s="57"/>
@@ -4712,17 +5104,23 @@
       <c r="AB29" s="57"/>
       <c r="AC29" s="57"/>
       <c r="AD29" s="57"/>
-      <c r="AE29" s="57"/>
+      <c r="AE29" s="57">
+        <v>1</v>
+      </c>
       <c r="AF29" s="57"/>
       <c r="AG29" s="58"/>
       <c r="AH29" s="58"/>
-      <c r="AI29" s="58"/>
-      <c r="AJ29" s="58"/>
+      <c r="AI29" s="58">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="58">
+        <v>1</v>
+      </c>
       <c r="AK29" s="58"/>
       <c r="AL29" s="58"/>
       <c r="AM29" s="58"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="35">
         <v>29</v>
       </c>
@@ -4807,7 +5205,7 @@
       <c r="AL30" s="36"/>
       <c r="AM30" s="36"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="57">
         <v>30</v>
       </c>
@@ -4892,7 +5290,7 @@
       <c r="AL31" s="58"/>
       <c r="AM31" s="58"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="35">
         <v>31</v>
       </c>
@@ -4977,7 +5375,7 @@
       <c r="AL32" s="36"/>
       <c r="AM32" s="36"/>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="57">
         <v>32</v>
       </c>
@@ -5062,7 +5460,7 @@
       <c r="AL33" s="58"/>
       <c r="AM33" s="58"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="35">
         <v>33</v>
       </c>
@@ -5147,7 +5545,7 @@
       <c r="AL34" s="36"/>
       <c r="AM34" s="36"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="57">
         <v>34</v>
       </c>
@@ -5232,7 +5630,7 @@
       <c r="AL35" s="58"/>
       <c r="AM35" s="58"/>
     </row>
-    <row r="36" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="35"/>
       <c r="B36" s="31"/>
       <c r="C36" s="37"/>
@@ -5303,7 +5701,7 @@
       <c r="AL36" s="36"/>
       <c r="AM36" s="36"/>
     </row>
-    <row r="37" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="57"/>
       <c r="B37" s="57"/>
       <c r="C37" s="44"/>
@@ -5374,7 +5772,7 @@
       <c r="AL37" s="58"/>
       <c r="AM37" s="58"/>
     </row>
-    <row r="38" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="35"/>
       <c r="B38" s="31"/>
       <c r="C38" s="37"/>
@@ -5445,7 +5843,7 @@
       <c r="AL38" s="36"/>
       <c r="AM38" s="36"/>
     </row>
-    <row r="39" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="57"/>
       <c r="B39" s="57"/>
       <c r="C39" s="44"/>
@@ -5516,7 +5914,7 @@
       <c r="AL39" s="58"/>
       <c r="AM39" s="58"/>
     </row>
-    <row r="40" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="35"/>
       <c r="B40" s="31"/>
       <c r="C40" s="37"/>
@@ -5587,7 +5985,7 @@
       <c r="AL40" s="36"/>
       <c r="AM40" s="36"/>
     </row>
-    <row r="41" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="57"/>
       <c r="B41" s="57"/>
       <c r="C41" s="44"/>
@@ -5658,7 +6056,7 @@
       <c r="AL41" s="58"/>
       <c r="AM41" s="58"/>
     </row>
-    <row r="42" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="35"/>
       <c r="B42" s="31"/>
       <c r="C42" s="37"/>
@@ -5729,7 +6127,7 @@
       <c r="AL42" s="36"/>
       <c r="AM42" s="36"/>
     </row>
-    <row r="43" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="57"/>
       <c r="B43" s="57"/>
       <c r="C43" s="44"/>
@@ -5800,7 +6198,7 @@
       <c r="AL43" s="58"/>
       <c r="AM43" s="58"/>
     </row>
-    <row r="44" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="35"/>
       <c r="B44" s="31"/>
       <c r="C44" s="37"/>
@@ -5871,7 +6269,7 @@
       <c r="AL44" s="36"/>
       <c r="AM44" s="36"/>
     </row>
-    <row r="45" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="57"/>
       <c r="B45" s="57"/>
       <c r="C45" s="44"/>
@@ -5942,7 +6340,7 @@
       <c r="AL45" s="58"/>
       <c r="AM45" s="58"/>
     </row>
-    <row r="46" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="35"/>
       <c r="B46" s="31"/>
       <c r="C46" s="37"/>
@@ -6013,7 +6411,7 @@
       <c r="AL46" s="36"/>
       <c r="AM46" s="36"/>
     </row>
-    <row r="47" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="57"/>
       <c r="B47" s="57"/>
       <c r="C47" s="44"/>
@@ -6084,7 +6482,7 @@
       <c r="AL47" s="58"/>
       <c r="AM47" s="58"/>
     </row>
-    <row r="48" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="35"/>
       <c r="B48" s="31"/>
       <c r="C48" s="37"/>
@@ -6155,7 +6553,7 @@
       <c r="AL48" s="36"/>
       <c r="AM48" s="36"/>
     </row>
-    <row r="49" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="57"/>
       <c r="B49" s="57"/>
       <c r="C49" s="44"/>
@@ -6226,7 +6624,7 @@
       <c r="AL49" s="58"/>
       <c r="AM49" s="58"/>
     </row>
-    <row r="50" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="35"/>
       <c r="B50" s="31"/>
       <c r="C50" s="37"/>
@@ -6297,7 +6695,7 @@
       <c r="AL50" s="36"/>
       <c r="AM50" s="36"/>
     </row>
-    <row r="51" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="57"/>
       <c r="B51" s="57"/>
       <c r="C51" s="44"/>
@@ -6368,7 +6766,7 @@
       <c r="AL51" s="58"/>
       <c r="AM51" s="58"/>
     </row>
-    <row r="52" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="35"/>
       <c r="B52" s="31"/>
       <c r="C52" s="37"/>
@@ -6439,7 +6837,7 @@
       <c r="AL52" s="36"/>
       <c r="AM52" s="36"/>
     </row>
-    <row r="53" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="57"/>
       <c r="B53" s="57"/>
       <c r="C53" s="44"/>
@@ -6510,7 +6908,7 @@
       <c r="AL53" s="58"/>
       <c r="AM53" s="58"/>
     </row>
-    <row r="54" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="35"/>
       <c r="B54" s="31"/>
       <c r="C54" s="37"/>
@@ -6581,7 +6979,7 @@
       <c r="AL54" s="36"/>
       <c r="AM54" s="36"/>
     </row>
-    <row r="55" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="57"/>
       <c r="B55" s="57"/>
       <c r="C55" s="44"/>
@@ -6652,7 +7050,7 @@
       <c r="AL55" s="58"/>
       <c r="AM55" s="58"/>
     </row>
-    <row r="56" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="35"/>
       <c r="B56" s="31"/>
       <c r="C56" s="37"/>
@@ -6723,7 +7121,7 @@
       <c r="AL56" s="36"/>
       <c r="AM56" s="36"/>
     </row>
-    <row r="57" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="57"/>
       <c r="B57" s="57"/>
       <c r="C57" s="44"/>
@@ -6794,7 +7192,7 @@
       <c r="AL57" s="58"/>
       <c r="AM57" s="58"/>
     </row>
-    <row r="58" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="35"/>
       <c r="B58" s="31"/>
       <c r="C58" s="37"/>
@@ -6865,7 +7263,7 @@
       <c r="AL58" s="36"/>
       <c r="AM58" s="36"/>
     </row>
-    <row r="59" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="57"/>
       <c r="B59" s="57"/>
       <c r="C59" s="44"/>
@@ -6936,7 +7334,7 @@
       <c r="AL59" s="58"/>
       <c r="AM59" s="58"/>
     </row>
-    <row r="60" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="35"/>
       <c r="B60" s="31"/>
       <c r="C60" s="37"/>
@@ -7007,7 +7405,7 @@
       <c r="AL60" s="36"/>
       <c r="AM60" s="36"/>
     </row>
-    <row r="61" spans="1:39" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="57"/>
       <c r="B61" s="57"/>
       <c r="C61" s="44"/>
@@ -7078,7 +7476,7 @@
       <c r="AL61" s="58"/>
       <c r="AM61" s="58"/>
     </row>
-    <row r="62" spans="1:39" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="62" spans="1:39" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A1:E1048576" name="区域1" securityDescriptor=""/>
@@ -7155,18 +7553,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="输出信号" sqref="Q1:T1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AluOP " prompt="AluOP 4位选择符二进制位_x000a_" sqref="Q2:T61" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="为1时填1，其他值不填_x000a__x000a_输入信号的标签用户可自行修改，也可在右侧自行增加列，新增控制信号" sqref="AG1:AM1048576 U26:AF1048576 U1:AF1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号情况" prompt="为1时填1，其他不填！" sqref="U2:AF25" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode" prompt="OpCode  6个二进制位" sqref="F62:F1048576 K1:O1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Func字段二进制位" prompt="Func字段6个二进制位" sqref="G2:J1048576 F2:F61" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Funct3(十进制)" prompt="输入RISC-V指令字的Funct3字段的10进制数，无Funct3字段不填，后续隐藏列会自动生成对应字段的二进制" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Funct7(十进制)" prompt="输入RISC-V指令字的Funct7字段的10进制数，如果不关心这个字段不填，如果Funct7字段用作区分Funct3字段相同的指令，这个字段必须填写，0值也需要填写，后续隐藏列会自动生成对应字段的二进制" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(10进制)" prompt="输入RISC-V指令字的Opcode高5位十进制数，后续隐藏列会自动生成该字段5位的二进制位" sqref="E1 E65:E1048576" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ALU_OP" prompt="请输入当前指令的AluOp十进制编码，后续列会自动生成对应的二进制位，如不需要使用ALU可以不填" sqref="P1:P1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(16进制)" prompt="输入RISC-V指令字的Opcode高5位16制数，后续隐藏列会自动生成该字段5位的二进制位" sqref="E2:E64" xr:uid="{0DB0A7D0-D287-40AF-A1CA-259CC6984531}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="输出信号" sqref="Q1:T1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="B1:B1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AluOP " prompt="AluOP 4位选择符二进制位_x000a_" sqref="Q2:T61"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="为1时填1，其他值不填_x000a__x000a_输入信号的标签用户可自行修改，也可在右侧自行增加列，新增控制信号" sqref="AG1:AM1048576 U26:AF1048576 U1:AF1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号情况" prompt="为1时填1，其他不填！" sqref="U2:AF25"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode" prompt="OpCode  6个二进制位" sqref="F62:F1048576 K1:O1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Func字段二进制位" prompt="Func字段6个二进制位" sqref="G2:J1048576 F2:F61"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Funct3(十进制)" prompt="输入RISC-V指令字的Funct3字段的10进制数，无Funct3字段不填，后续隐藏列会自动生成对应字段的二进制" sqref="D1:D1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Funct7(十进制)" prompt="输入RISC-V指令字的Funct7字段的10进制数，如果不关心这个字段不填，如果Funct7字段用作区分Funct3字段相同的指令，这个字段必须填写，0值也需要填写，后续隐藏列会自动生成对应字段的二进制" sqref="C1:C1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(10进制)" prompt="输入RISC-V指令字的Opcode高5位十进制数，后续隐藏列会自动生成该字段5位的二进制位" sqref="E1 E65:E1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ALU_OP" prompt="请输入当前指令的AluOp十进制编码，后续列会自动生成对应的二进制位，如不需要使用ALU可以不填" sqref="P1:P1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(16进制)" prompt="输入RISC-V指令字的Opcode高5位16制数，后续隐藏列会自动生成该字段5位的二进制位" sqref="E2:E64"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7174,33 +7572,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:AX63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z26" sqref="Z26"/>
+      <selection pane="bottomLeft" activeCell="Y71" sqref="Y71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="18" customWidth="1"/>
     <col min="2" max="3" width="9.5" style="18" customWidth="1"/>
-    <col min="4" max="4" width="8.58203125" style="18" customWidth="1"/>
-    <col min="5" max="7" width="4.58203125" style="18" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="18" customWidth="1"/>
+    <col min="5" max="7" width="4.625" style="18" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="4.25" style="18" hidden="1" customWidth="1"/>
-    <col min="9" max="14" width="4.58203125" style="18" hidden="1" customWidth="1"/>
+    <col min="9" max="14" width="4.625" style="18" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="23.5" style="18" customWidth="1"/>
-    <col min="16" max="19" width="4.58203125" style="18" customWidth="1"/>
+    <col min="16" max="19" width="4.625" style="18" customWidth="1"/>
     <col min="20" max="22" width="9" customWidth="1"/>
     <col min="32" max="35" width="9" style="19" customWidth="1"/>
     <col min="36" max="42" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
@@ -7260,7 +7658,7 @@
         <v>OP2</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P1" s="23" t="str">
         <f>真值表!Q1</f>
@@ -7320,101 +7718,101 @@
       </c>
       <c r="AD1" s="23" t="str">
         <f>真值表!AE1</f>
-        <v>XXX</v>
+        <v>BLTU</v>
       </c>
       <c r="AE1" s="23" t="str">
         <f>真值表!AF1</f>
-        <v>XXX</v>
+        <v>U_Type</v>
       </c>
       <c r="AF1" s="25" t="str">
         <f>真值表!AG1</f>
-        <v>XXX</v>
-      </c>
-      <c r="AG1" s="25" t="str">
+        <v>LBU</v>
+      </c>
+      <c r="AG1" s="25">
         <f>真值表!AH1</f>
-        <v>XXX</v>
+        <v>0</v>
       </c>
       <c r="AH1" s="25" t="str">
         <f>真值表!AI1</f>
-        <v>XXX</v>
+        <v>R1</v>
       </c>
       <c r="AI1" s="25" t="str">
         <f>真值表!AJ1</f>
-        <v>XXX</v>
-      </c>
-      <c r="AJ1" s="25" t="str">
+        <v>R2</v>
+      </c>
+      <c r="AJ1" s="25">
         <f>真值表!AK1</f>
-        <v>XXX</v>
+        <v>0</v>
       </c>
       <c r="AK1" s="25" t="str">
         <f>真值表!AL1</f>
-        <v>XXX</v>
+        <v>CSRRSI</v>
       </c>
       <c r="AL1" s="25" t="str">
         <f>真值表!AM1</f>
-        <v>XXX</v>
+        <v>CSRRCI</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="str">
         <f>IF(ISBLANK(真值表!B2),"",真值表!B2)</f>
         <v>add</v>
       </c>
-      <c r="B2" s="37" t="str">
+      <c r="B2" s="37">
         <f>IF(ISBLANK(真值表!C2),"",真值表!C2)</f>
-        <v/>
-      </c>
-      <c r="C2" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="C2" s="37">
         <f>IF(ISBLANK(真值表!D2),"",真值表!D2)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D2" s="36" t="str">
         <f>IF(ISBLANK(真值表!E2),"",真值表!E2)</f>
-        <v/>
+        <v>c</v>
       </c>
       <c r="E2" s="55" t="str">
         <f>IF(真值表!F2=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F2=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F2" s="55" t="str">
         <f>IF(真值表!G2=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G2=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G2" s="55" t="str">
         <f>IF(真值表!H2=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H2=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H2" s="55" t="str">
         <f>IF(真值表!I2=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I2=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I2" s="55" t="str">
         <f>IF(真值表!J2=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J2=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J2" s="54" t="str">
         <f>IF(真值表!K2=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K2=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K2" s="54" t="str">
         <f>IF(真值表!L2=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L2=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L2" s="54" t="str">
         <f>IF(真值表!M2=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M2=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M2" s="54" t="str">
         <f>IF(真值表!N2=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N2=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N2" s="54" t="str">
         <f>IF(真值表!O2=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O2=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O2" s="53" t="str">
         <f>IF(LEN(CONCATENATE(E2,F2,G2,H2,I2,J2,K2,L2,M2,N2))=0,"",LEFT(CONCATENATE(E2,F2,G2,H2,I2,J2,K2,L2,M2,N2),LEN(CONCATENATE(E2,F2,G2,H2,I2,J2,K2,L2,M2,N2))-1))</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P2" s="24" t="str">
         <f>IF(真值表!Q2=1,$O2&amp;"+","")</f>
@@ -7422,7 +7820,7 @@
       </c>
       <c r="Q2" s="24" t="str">
         <f>IF(真值表!R2=1,$O2&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R2" s="24" t="str">
         <f>IF(真值表!S2=1,$O2&amp;"+","")</f>
@@ -7430,7 +7828,7 @@
       </c>
       <c r="S2" s="24" t="str">
         <f>IF(真值表!T2=1,$O2&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T2" s="24" t="str">
         <f>IF(真值表!U2=1,$O2&amp;"+","")</f>
@@ -7446,7 +7844,7 @@
       </c>
       <c r="W2" s="24" t="str">
         <f>IF(真值表!X2=1,$O2&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X2" s="24" t="str">
         <f>IF(真值表!Y2=1,$O2&amp;"+","")</f>
@@ -7490,11 +7888,11 @@
       </c>
       <c r="AH2" s="24" t="str">
         <f>IF(真值表!AI2=1,$O2&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI2" s="24" t="str">
         <f>IF(真值表!AJ2=1,$O2&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AJ2" s="24" t="str">
         <f>IF(真值表!AK2=1,$O2&amp;"+","")</f>
@@ -7509,66 +7907,66 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="str">
         <f>IF(ISBLANK(真值表!B3),"",真值表!B3)</f>
         <v>sub</v>
       </c>
-      <c r="B3" s="45" t="str">
+      <c r="B3" s="45">
         <f>IF(ISBLANK(真值表!C3),"",真值表!C3)</f>
-        <v/>
-      </c>
-      <c r="C3" s="52" t="str">
+        <v>32</v>
+      </c>
+      <c r="C3" s="52">
         <f>IF(ISBLANK(真值表!D3),"",真值表!D3)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D3" s="51" t="str">
         <f>IF(ISBLANK(真值表!E3),"",真值表!E3)</f>
-        <v/>
+        <v>c</v>
       </c>
       <c r="E3" s="47" t="str">
         <f>IF(真值表!F3=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F3=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;</v>
       </c>
       <c r="F3" s="47" t="str">
         <f>IF(真值表!G3=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G3=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G3" s="47" t="str">
         <f>IF(真值表!H3=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H3=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H3" s="47" t="str">
         <f>IF(真值表!I3=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I3=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I3" s="47" t="str">
         <f>IF(真值表!J3=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J3=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J3" s="46" t="str">
         <f>IF(真值表!K3=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K3=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K3" s="46" t="str">
         <f>IF(真值表!L3=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L3=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L3" s="46" t="str">
         <f>IF(真值表!M3=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M3=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M3" s="46" t="str">
         <f>IF(真值表!N3=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N3=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N3" s="46" t="str">
         <f>IF(真值表!O3=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O3=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O3" s="48" t="str">
         <f t="shared" ref="O3:O22" si="0">IF(LEN(CONCATENATE(E3,F3,G3,H3,I3,J3,K3,L3,M3,N3))=0,"",LEFT(CONCATENATE(E3,F3,G3,H3,I3,J3,K3,L3,M3,N3),LEN(CONCATENATE(E3,F3,G3,H3,I3,J3,K3,L3,M3,N3))-1))</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P3" s="49" t="str">
         <f>IF(真值表!Q3=1,$O3&amp;"+","")</f>
@@ -7576,11 +7974,11 @@
       </c>
       <c r="Q3" s="49" t="str">
         <f>IF(真值表!R3=1,$O3&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R3" s="49" t="str">
         <f>IF(真值表!S3=1,$O3&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S3" s="49" t="str">
         <f>IF(真值表!T3=1,$O3&amp;"+","")</f>
@@ -7600,7 +7998,7 @@
       </c>
       <c r="W3" s="49" t="str">
         <f>IF(真值表!X3=1,$O3&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X3" s="49" t="str">
         <f>IF(真值表!Y3=1,$O3&amp;"+","")</f>
@@ -7644,11 +8042,11 @@
       </c>
       <c r="AH3" s="49" t="str">
         <f>IF(真值表!AI3=1,$O3&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI3" s="49" t="str">
         <f>IF(真值表!AJ3=1,$O3&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AJ3" s="49" t="str">
         <f>IF(真值表!AK3=1,$O3&amp;"+","")</f>
@@ -7663,66 +8061,66 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="str">
         <f>IF(ISBLANK(真值表!B4),"",真值表!B4)</f>
         <v>and</v>
       </c>
-      <c r="B4" s="37" t="str">
+      <c r="B4" s="37">
         <f>IF(ISBLANK(真值表!C4),"",真值表!C4)</f>
-        <v/>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF(ISBLANK(真值表!D4),"",真值表!D4)</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="D4" s="36" t="str">
         <f>IF(ISBLANK(真值表!E4),"",真值表!E4)</f>
-        <v/>
+        <v>c</v>
       </c>
       <c r="E4" s="55" t="str">
         <f>IF(真值表!F4=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F4=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F4" s="55" t="str">
         <f>IF(真值表!G4=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G4=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G4" s="55" t="str">
         <f>IF(真值表!H4=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H4=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H4" s="55" t="str">
         <f>IF(真值表!I4=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I4=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I4" s="55" t="str">
         <f>IF(真值表!J4=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J4=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F12&amp;</v>
       </c>
       <c r="J4" s="54" t="str">
         <f>IF(真值表!K4=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K4=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K4" s="54" t="str">
         <f>IF(真值表!L4=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L4=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L4" s="54" t="str">
         <f>IF(真值表!M4=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M4=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M4" s="54" t="str">
         <f>IF(真值表!N4=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N4=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N4" s="54" t="str">
         <f>IF(真值表!O4=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O4=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O4" s="53" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P4" s="24" t="str">
         <f>IF(真值表!Q4=1,$O4&amp;"+","")</f>
@@ -7730,15 +8128,15 @@
       </c>
       <c r="Q4" s="24" t="str">
         <f>IF(真值表!R4=1,$O4&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R4" s="24" t="str">
         <f>IF(真值表!S4=1,$O4&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S4" s="24" t="str">
         <f>IF(真值表!T4=1,$O4&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T4" s="24" t="str">
         <f>IF(真值表!U4=1,$O4&amp;"+","")</f>
@@ -7754,7 +8152,7 @@
       </c>
       <c r="W4" s="24" t="str">
         <f>IF(真值表!X4=1,$O4&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X4" s="24" t="str">
         <f>IF(真值表!Y4=1,$O4&amp;"+","")</f>
@@ -7798,11 +8196,11 @@
       </c>
       <c r="AH4" s="24" t="str">
         <f>IF(真值表!AI4=1,$O4&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI4" s="24" t="str">
         <f>IF(真值表!AJ4=1,$O4&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AJ4" s="24" t="str">
         <f>IF(真值表!AK4=1,$O4&amp;"+","")</f>
@@ -7817,70 +8215,70 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="str">
         <f>IF(ISBLANK(真值表!B5),"",真值表!B5)</f>
         <v>or</v>
       </c>
-      <c r="B5" s="45" t="str">
+      <c r="B5" s="45">
         <f>IF(ISBLANK(真值表!C5),"",真值表!C5)</f>
-        <v/>
-      </c>
-      <c r="C5" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="C5" s="52">
         <f>IF(ISBLANK(真值表!D5),"",真值表!D5)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="D5" s="51" t="str">
         <f>IF(ISBLANK(真值表!E5),"",真值表!E5)</f>
-        <v/>
+        <v>c</v>
       </c>
       <c r="E5" s="47" t="str">
         <f>IF(真值表!F5=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F5=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F5" s="47" t="str">
         <f>IF(真值表!G5=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G5=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G5" s="47" t="str">
         <f>IF(真值表!H5=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H5=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H5" s="47" t="str">
         <f>IF(真值表!I5=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I5=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I5" s="47" t="str">
         <f>IF(真值表!J5=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J5=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J5" s="46" t="str">
         <f>IF(真值表!K5=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K5=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K5" s="46" t="str">
         <f>IF(真值表!L5=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L5=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L5" s="46" t="str">
         <f>IF(真值表!M5=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M5=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M5" s="46" t="str">
         <f>IF(真值表!N5=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N5=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N5" s="46" t="str">
         <f>IF(真值表!O5=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O5=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O5" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P5" s="49" t="str">
         <f>IF(真值表!Q5=1,$O5&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q5" s="49" t="str">
         <f>IF(真值表!R5=1,$O5&amp;"+","")</f>
@@ -7908,7 +8306,7 @@
       </c>
       <c r="W5" s="49" t="str">
         <f>IF(真值表!X5=1,$O5&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X5" s="49" t="str">
         <f>IF(真值表!Y5=1,$O5&amp;"+","")</f>
@@ -7952,11 +8350,11 @@
       </c>
       <c r="AH5" s="49" t="str">
         <f>IF(真值表!AI5=1,$O5&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI5" s="49" t="str">
         <f>IF(真值表!AJ5=1,$O5&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AJ5" s="49" t="str">
         <f>IF(真值表!AK5=1,$O5&amp;"+","")</f>
@@ -7971,70 +8369,70 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="str">
         <f>IF(ISBLANK(真值表!B6),"",真值表!B6)</f>
         <v>slt</v>
       </c>
-      <c r="B6" s="37" t="str">
+      <c r="B6" s="37">
         <f>IF(ISBLANK(真值表!C6),"",真值表!C6)</f>
-        <v/>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF(ISBLANK(真值表!D6),"",真值表!D6)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="D6" s="36" t="str">
         <f>IF(ISBLANK(真值表!E6),"",真值表!E6)</f>
-        <v/>
+        <v>c</v>
       </c>
       <c r="E6" s="55" t="str">
         <f>IF(真值表!F6=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F6=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F6" s="55" t="str">
         <f>IF(真值表!G6=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G6=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G6" s="55" t="str">
         <f>IF(真值表!H6=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H6=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H6" s="55" t="str">
         <f>IF(真值表!I6=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I6=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I6" s="55" t="str">
         <f>IF(真值表!J6=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J6=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J6" s="54" t="str">
         <f>IF(真值表!K6=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K6=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K6" s="54" t="str">
         <f>IF(真值表!L6=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L6=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L6" s="54" t="str">
         <f>IF(真值表!M6=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M6=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M6" s="54" t="str">
         <f>IF(真值表!N6=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N6=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N6" s="54" t="str">
         <f>IF(真值表!O6=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O6=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O6" s="53" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P6" s="24" t="str">
         <f>IF(真值表!Q6=1,$O6&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q6" s="24" t="str">
         <f>IF(真值表!R6=1,$O6&amp;"+","")</f>
@@ -8042,11 +8440,11 @@
       </c>
       <c r="R6" s="24" t="str">
         <f>IF(真值表!S6=1,$O6&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S6" s="24" t="str">
         <f>IF(真值表!T6=1,$O6&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T6" s="24" t="str">
         <f>IF(真值表!U6=1,$O6&amp;"+","")</f>
@@ -8062,7 +8460,7 @@
       </c>
       <c r="W6" s="24" t="str">
         <f>IF(真值表!X6=1,$O6&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X6" s="24" t="str">
         <f>IF(真值表!Y6=1,$O6&amp;"+","")</f>
@@ -8106,11 +8504,11 @@
       </c>
       <c r="AH6" s="24" t="str">
         <f>IF(真值表!AI6=1,$O6&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI6" s="24" t="str">
         <f>IF(真值表!AJ6=1,$O6&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AJ6" s="24" t="str">
         <f>IF(真值表!AK6=1,$O6&amp;"+","")</f>
@@ -8125,74 +8523,74 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="50" t="str">
         <f>IF(ISBLANK(真值表!B7),"",真值表!B7)</f>
         <v>sltu</v>
       </c>
-      <c r="B7" s="45" t="str">
+      <c r="B7" s="45">
         <f>IF(ISBLANK(真值表!C7),"",真值表!C7)</f>
-        <v/>
-      </c>
-      <c r="C7" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="C7" s="52">
         <f>IF(ISBLANK(真值表!D7),"",真值表!D7)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="D7" s="51" t="str">
         <f>IF(ISBLANK(真值表!E7),"",真值表!E7)</f>
-        <v/>
+        <v>c</v>
       </c>
       <c r="E7" s="47" t="str">
         <f>IF(真值表!F7=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F7=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F7" s="47" t="str">
         <f>IF(真值表!G7=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G7=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G7" s="47" t="str">
         <f>IF(真值表!H7=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H7=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H7" s="47" t="str">
         <f>IF(真值表!I7=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I7=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I7" s="47" t="str">
         <f>IF(真值表!J7=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J7=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F12&amp;</v>
       </c>
       <c r="J7" s="46" t="str">
         <f>IF(真值表!K7=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K7=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K7" s="46" t="str">
         <f>IF(真值表!L7=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L7=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L7" s="46" t="str">
         <f>IF(真值表!M7=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M7=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M7" s="46" t="str">
         <f>IF(真值表!N7=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N7=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N7" s="46" t="str">
         <f>IF(真值表!O7=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O7=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O7" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P7" s="49" t="str">
         <f>IF(真值表!Q7=1,$O7&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q7" s="49" t="str">
         <f>IF(真值表!R7=1,$O7&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R7" s="49" t="str">
         <f>IF(真值表!S7=1,$O7&amp;"+","")</f>
@@ -8216,7 +8614,7 @@
       </c>
       <c r="W7" s="49" t="str">
         <f>IF(真值表!X7=1,$O7&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X7" s="49" t="str">
         <f>IF(真值表!Y7=1,$O7&amp;"+","")</f>
@@ -8260,11 +8658,11 @@
       </c>
       <c r="AH7" s="49" t="str">
         <f>IF(真值表!AI7=1,$O7&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI7" s="49" t="str">
         <f>IF(真值表!AJ7=1,$O7&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AJ7" s="49" t="str">
         <f>IF(真值表!AK7=1,$O7&amp;"+","")</f>
@@ -8279,7 +8677,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="str">
         <f>IF(ISBLANK(真值表!B8),"",真值表!B8)</f>
         <v>addi</v>
@@ -8288,13 +8686,13 @@
         <f>IF(ISBLANK(真值表!C8),"",真值表!C8)</f>
         <v/>
       </c>
-      <c r="C8" s="37" t="str">
+      <c r="C8" s="37">
         <f>IF(ISBLANK(真值表!D8),"",真值表!D8)</f>
-        <v/>
-      </c>
-      <c r="D8" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="D8" s="36">
         <f>IF(ISBLANK(真值表!E8),"",真值表!E8)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E8" s="55" t="str">
         <f>IF(真值表!F8=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F8=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -8306,39 +8704,39 @@
       </c>
       <c r="G8" s="55" t="str">
         <f>IF(真值表!H8=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H8=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H8" s="55" t="str">
         <f>IF(真值表!I8=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I8=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I8" s="55" t="str">
         <f>IF(真值表!J8=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J8=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J8" s="54" t="str">
         <f>IF(真值表!K8=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K8=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K8" s="54" t="str">
         <f>IF(真值表!L8=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L8=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="L8" s="54" t="str">
         <f>IF(真值表!M8=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M8=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M8" s="54" t="str">
         <f>IF(真值表!N8=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N8=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N8" s="54" t="str">
         <f>IF(真值表!O8=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O8=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O8" s="53" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P8" s="24" t="str">
         <f>IF(真值表!Q8=1,$O8&amp;"+","")</f>
@@ -8346,7 +8744,7 @@
       </c>
       <c r="Q8" s="24" t="str">
         <f>IF(真值表!R8=1,$O8&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R8" s="24" t="str">
         <f>IF(真值表!S8=1,$O8&amp;"+","")</f>
@@ -8354,7 +8752,7 @@
       </c>
       <c r="S8" s="24" t="str">
         <f>IF(真值表!T8=1,$O8&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T8" s="24" t="str">
         <f>IF(真值表!U8=1,$O8&amp;"+","")</f>
@@ -8366,11 +8764,11 @@
       </c>
       <c r="V8" s="24" t="str">
         <f>IF(真值表!W8=1,$O8&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W8" s="24" t="str">
         <f>IF(真值表!X8=1,$O8&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X8" s="24" t="str">
         <f>IF(真值表!Y8=1,$O8&amp;"+","")</f>
@@ -8414,7 +8812,7 @@
       </c>
       <c r="AH8" s="24" t="str">
         <f>IF(真值表!AI8=1,$O8&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI8" s="24" t="str">
         <f>IF(真值表!AJ8=1,$O8&amp;"+","")</f>
@@ -8433,7 +8831,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="str">
         <f>IF(ISBLANK(真值表!B9),"",真值表!B9)</f>
         <v>andi</v>
@@ -8442,13 +8840,13 @@
         <f>IF(ISBLANK(真值表!C9),"",真值表!C9)</f>
         <v/>
       </c>
-      <c r="C9" s="52" t="str">
+      <c r="C9" s="52">
         <f>IF(ISBLANK(真值表!D9),"",真值表!D9)</f>
-        <v/>
-      </c>
-      <c r="D9" s="51" t="str">
+        <v>7</v>
+      </c>
+      <c r="D9" s="51">
         <f>IF(ISBLANK(真值表!E9),"",真值表!E9)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E9" s="47" t="str">
         <f>IF(真值表!F9=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F9=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -8460,39 +8858,39 @@
       </c>
       <c r="G9" s="47" t="str">
         <f>IF(真值表!H9=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H9=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H9" s="47" t="str">
         <f>IF(真值表!I9=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I9=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I9" s="47" t="str">
         <f>IF(真值表!J9=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J9=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F12&amp;</v>
       </c>
       <c r="J9" s="46" t="str">
         <f>IF(真值表!K9=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K9=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K9" s="46" t="str">
         <f>IF(真值表!L9=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L9=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="L9" s="46" t="str">
         <f>IF(真值表!M9=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M9=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M9" s="46" t="str">
         <f>IF(真值表!N9=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N9=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N9" s="46" t="str">
         <f>IF(真值表!O9=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O9=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O9" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P9" s="49" t="str">
         <f>IF(真值表!Q9=1,$O9&amp;"+","")</f>
@@ -8500,15 +8898,15 @@
       </c>
       <c r="Q9" s="49" t="str">
         <f>IF(真值表!R9=1,$O9&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R9" s="49" t="str">
         <f>IF(真值表!S9=1,$O9&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S9" s="49" t="str">
         <f>IF(真值表!T9=1,$O9&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T9" s="49" t="str">
         <f>IF(真值表!U9=1,$O9&amp;"+","")</f>
@@ -8520,11 +8918,11 @@
       </c>
       <c r="V9" s="49" t="str">
         <f>IF(真值表!W9=1,$O9&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W9" s="49" t="str">
         <f>IF(真值表!X9=1,$O9&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X9" s="49" t="str">
         <f>IF(真值表!Y9=1,$O9&amp;"+","")</f>
@@ -8568,7 +8966,7 @@
       </c>
       <c r="AH9" s="49" t="str">
         <f>IF(真值表!AI9=1,$O9&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI9" s="49" t="str">
         <f>IF(真值表!AJ9=1,$O9&amp;"+","")</f>
@@ -8587,7 +8985,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="str">
         <f>IF(ISBLANK(真值表!B10),"",真值表!B10)</f>
         <v>ori</v>
@@ -8596,13 +8994,13 @@
         <f>IF(ISBLANK(真值表!C10),"",真值表!C10)</f>
         <v/>
       </c>
-      <c r="C10" s="37" t="str">
+      <c r="C10" s="37">
         <f>IF(ISBLANK(真值表!D10),"",真值表!D10)</f>
-        <v/>
-      </c>
-      <c r="D10" s="36" t="str">
+        <v>6</v>
+      </c>
+      <c r="D10" s="36">
         <f>IF(ISBLANK(真值表!E10),"",真值表!E10)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E10" s="55" t="str">
         <f>IF(真值表!F10=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F10=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -8614,43 +9012,43 @@
       </c>
       <c r="G10" s="55" t="str">
         <f>IF(真值表!H10=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H10=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H10" s="55" t="str">
         <f>IF(真值表!I10=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I10=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I10" s="55" t="str">
         <f>IF(真值表!J10=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J10=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J10" s="54" t="str">
         <f>IF(真值表!K10=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K10=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K10" s="54" t="str">
         <f>IF(真值表!L10=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L10=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="L10" s="54" t="str">
         <f>IF(真值表!M10=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M10=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M10" s="54" t="str">
         <f>IF(真值表!N10=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N10=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N10" s="54" t="str">
         <f>IF(真值表!O10=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O10=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O10" s="53" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P10" s="24" t="str">
         <f>IF(真值表!Q10=1,$O10&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q10" s="24" t="str">
         <f>IF(真值表!R10=1,$O10&amp;"+","")</f>
@@ -8674,11 +9072,11 @@
       </c>
       <c r="V10" s="24" t="str">
         <f>IF(真值表!W10=1,$O10&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W10" s="24" t="str">
         <f>IF(真值表!X10=1,$O10&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X10" s="24" t="str">
         <f>IF(真值表!Y10=1,$O10&amp;"+","")</f>
@@ -8722,7 +9120,7 @@
       </c>
       <c r="AH10" s="24" t="str">
         <f>IF(真值表!AI10=1,$O10&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI10" s="24" t="str">
         <f>IF(真值表!AJ10=1,$O10&amp;"+","")</f>
@@ -8741,7 +9139,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="str">
         <f>IF(ISBLANK(真值表!B11),"",真值表!B11)</f>
         <v>xori</v>
@@ -8750,13 +9148,13 @@
         <f>IF(ISBLANK(真值表!C11),"",真值表!C11)</f>
         <v/>
       </c>
-      <c r="C11" s="52" t="str">
+      <c r="C11" s="52">
         <f>IF(ISBLANK(真值表!D11),"",真值表!D11)</f>
-        <v/>
-      </c>
-      <c r="D11" s="51" t="str">
+        <v>4</v>
+      </c>
+      <c r="D11" s="51">
         <f>IF(ISBLANK(真值表!E11),"",真值表!E11)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E11" s="47" t="str">
         <f>IF(真值表!F11=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F11=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -8768,43 +9166,43 @@
       </c>
       <c r="G11" s="47" t="str">
         <f>IF(真值表!H11=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H11=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H11" s="47" t="str">
         <f>IF(真值表!I11=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I11=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I11" s="47" t="str">
         <f>IF(真值表!J11=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J11=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J11" s="46" t="str">
         <f>IF(真值表!K11=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K11=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K11" s="46" t="str">
         <f>IF(真值表!L11=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L11=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="L11" s="46" t="str">
         <f>IF(真值表!M11=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M11=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M11" s="46" t="str">
         <f>IF(真值表!N11=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N11=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N11" s="46" t="str">
         <f>IF(真值表!O11=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O11=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O11" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P11" s="49" t="str">
         <f>IF(真值表!Q11=1,$O11&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q11" s="49" t="str">
         <f>IF(真值表!R11=1,$O11&amp;"+","")</f>
@@ -8816,7 +9214,7 @@
       </c>
       <c r="S11" s="49" t="str">
         <f>IF(真值表!T11=1,$O11&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T11" s="49" t="str">
         <f>IF(真值表!U11=1,$O11&amp;"+","")</f>
@@ -8828,11 +9226,11 @@
       </c>
       <c r="V11" s="49" t="str">
         <f>IF(真值表!W11=1,$O11&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W11" s="49" t="str">
         <f>IF(真值表!X11=1,$O11&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X11" s="49" t="str">
         <f>IF(真值表!Y11=1,$O11&amp;"+","")</f>
@@ -8876,7 +9274,7 @@
       </c>
       <c r="AH11" s="49" t="str">
         <f>IF(真值表!AI11=1,$O11&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI11" s="49" t="str">
         <f>IF(真值表!AJ11=1,$O11&amp;"+","")</f>
@@ -8895,7 +9293,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="str">
         <f>IF(ISBLANK(真值表!B12),"",真值表!B12)</f>
         <v>slti</v>
@@ -8904,13 +9302,13 @@
         <f>IF(ISBLANK(真值表!C12),"",真值表!C12)</f>
         <v/>
       </c>
-      <c r="C12" s="37" t="str">
+      <c r="C12" s="37">
         <f>IF(ISBLANK(真值表!D12),"",真值表!D12)</f>
-        <v/>
-      </c>
-      <c r="D12" s="36" t="str">
+        <v>2</v>
+      </c>
+      <c r="D12" s="36">
         <f>IF(ISBLANK(真值表!E12),"",真值表!E12)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E12" s="55" t="str">
         <f>IF(真值表!F12=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F12=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -8922,43 +9320,43 @@
       </c>
       <c r="G12" s="55" t="str">
         <f>IF(真值表!H12=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H12=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H12" s="55" t="str">
         <f>IF(真值表!I12=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I12=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I12" s="55" t="str">
         <f>IF(真值表!J12=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J12=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J12" s="54" t="str">
         <f>IF(真值表!K12=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K12=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K12" s="54" t="str">
         <f>IF(真值表!L12=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L12=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="L12" s="54" t="str">
         <f>IF(真值表!M12=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M12=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M12" s="54" t="str">
         <f>IF(真值表!N12=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N12=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N12" s="54" t="str">
         <f>IF(真值表!O12=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O12=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O12" s="53" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P12" s="24" t="str">
         <f>IF(真值表!Q12=1,$O12&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q12" s="24" t="str">
         <f>IF(真值表!R12=1,$O12&amp;"+","")</f>
@@ -8966,11 +9364,11 @@
       </c>
       <c r="R12" s="24" t="str">
         <f>IF(真值表!S12=1,$O12&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S12" s="24" t="str">
         <f>IF(真值表!T12=1,$O12&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T12" s="24" t="str">
         <f>IF(真值表!U12=1,$O12&amp;"+","")</f>
@@ -8982,11 +9380,11 @@
       </c>
       <c r="V12" s="24" t="str">
         <f>IF(真值表!W12=1,$O12&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W12" s="24" t="str">
         <f>IF(真值表!X12=1,$O12&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X12" s="24" t="str">
         <f>IF(真值表!Y12=1,$O12&amp;"+","")</f>
@@ -9030,7 +9428,7 @@
       </c>
       <c r="AH12" s="24" t="str">
         <f>IF(真值表!AI12=1,$O12&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI12" s="24" t="str">
         <f>IF(真值表!AJ12=1,$O12&amp;"+","")</f>
@@ -9049,66 +9447,66 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="50" t="str">
         <f>IF(ISBLANK(真值表!B13),"",真值表!B13)</f>
         <v>slli</v>
       </c>
-      <c r="B13" s="45" t="str">
+      <c r="B13" s="45">
         <f>IF(ISBLANK(真值表!C13),"",真值表!C13)</f>
-        <v/>
-      </c>
-      <c r="C13" s="52" t="str">
+        <v>0</v>
+      </c>
+      <c r="C13" s="52">
         <f>IF(ISBLANK(真值表!D13),"",真值表!D13)</f>
-        <v/>
-      </c>
-      <c r="D13" s="51" t="str">
+        <v>1</v>
+      </c>
+      <c r="D13" s="51">
         <f>IF(ISBLANK(真值表!E13),"",真值表!E13)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E13" s="47" t="str">
         <f>IF(真值表!F13=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F13=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F13" s="47" t="str">
         <f>IF(真值表!G13=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G13=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G13" s="47" t="str">
         <f>IF(真值表!H13=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H13=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H13" s="47" t="str">
         <f>IF(真值表!I13=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I13=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I13" s="47" t="str">
         <f>IF(真值表!J13=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J13=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F12&amp;</v>
       </c>
       <c r="J13" s="46" t="str">
         <f>IF(真值表!K13=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K13=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K13" s="46" t="str">
         <f>IF(真值表!L13=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L13=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="L13" s="46" t="str">
         <f>IF(真值表!M13=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M13=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M13" s="46" t="str">
         <f>IF(真值表!N13=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N13=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N13" s="46" t="str">
         <f>IF(真值表!O13=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O13=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O13" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P13" s="49" t="str">
         <f>IF(真值表!Q13=1,$O13&amp;"+","")</f>
@@ -9136,11 +9534,11 @@
       </c>
       <c r="V13" s="49" t="str">
         <f>IF(真值表!W13=1,$O13&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W13" s="49" t="str">
         <f>IF(真值表!X13=1,$O13&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X13" s="49" t="str">
         <f>IF(真值表!Y13=1,$O13&amp;"+","")</f>
@@ -9184,7 +9582,7 @@
       </c>
       <c r="AH13" s="49" t="str">
         <f>IF(真值表!AI13=1,$O13&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI13" s="49" t="str">
         <f>IF(真值表!AJ13=1,$O13&amp;"+","")</f>
@@ -9203,66 +9601,66 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="str">
         <f>IF(ISBLANK(真值表!B14),"",真值表!B14)</f>
         <v>srli</v>
       </c>
-      <c r="B14" s="37" t="str">
+      <c r="B14" s="37">
         <f>IF(ISBLANK(真值表!C14),"",真值表!C14)</f>
-        <v/>
-      </c>
-      <c r="C14" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="C14" s="37">
         <f>IF(ISBLANK(真值表!D14),"",真值表!D14)</f>
-        <v/>
-      </c>
-      <c r="D14" s="36" t="str">
+        <v>5</v>
+      </c>
+      <c r="D14" s="36">
         <f>IF(ISBLANK(真值表!E14),"",真值表!E14)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E14" s="55" t="str">
         <f>IF(真值表!F14=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F14=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F14" s="55" t="str">
         <f>IF(真值表!G14=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G14=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G14" s="55" t="str">
         <f>IF(真值表!H14=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H14=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H14" s="55" t="str">
         <f>IF(真值表!I14=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I14=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I14" s="55" t="str">
         <f>IF(真值表!J14=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J14=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F12&amp;</v>
       </c>
       <c r="J14" s="54" t="str">
         <f>IF(真值表!K14=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K14=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K14" s="54" t="str">
         <f>IF(真值表!L14=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L14=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="L14" s="54" t="str">
         <f>IF(真值表!M14=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M14=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M14" s="54" t="str">
         <f>IF(真值表!N14=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N14=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N14" s="54" t="str">
         <f>IF(真值表!O14=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O14=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O14" s="53" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P14" s="24" t="str">
         <f>IF(真值表!Q14=1,$O14&amp;"+","")</f>
@@ -9274,7 +9672,7 @@
       </c>
       <c r="R14" s="24" t="str">
         <f>IF(真值表!S14=1,$O14&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S14" s="24" t="str">
         <f>IF(真值表!T14=1,$O14&amp;"+","")</f>
@@ -9290,11 +9688,11 @@
       </c>
       <c r="V14" s="24" t="str">
         <f>IF(真值表!W14=1,$O14&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W14" s="24" t="str">
         <f>IF(真值表!X14=1,$O14&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X14" s="24" t="str">
         <f>IF(真值表!Y14=1,$O14&amp;"+","")</f>
@@ -9338,7 +9736,7 @@
       </c>
       <c r="AH14" s="24" t="str">
         <f>IF(真值表!AI14=1,$O14&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI14" s="24" t="str">
         <f>IF(真值表!AJ14=1,$O14&amp;"+","")</f>
@@ -9357,66 +9755,66 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="50" t="str">
         <f>IF(ISBLANK(真值表!B15),"",真值表!B15)</f>
         <v>srai</v>
       </c>
-      <c r="B15" s="45" t="str">
+      <c r="B15" s="45">
         <f>IF(ISBLANK(真值表!C15),"",真值表!C15)</f>
-        <v/>
-      </c>
-      <c r="C15" s="52" t="str">
+        <v>32</v>
+      </c>
+      <c r="C15" s="52">
         <f>IF(ISBLANK(真值表!D15),"",真值表!D15)</f>
-        <v/>
-      </c>
-      <c r="D15" s="51" t="str">
+        <v>5</v>
+      </c>
+      <c r="D15" s="51">
         <f>IF(ISBLANK(真值表!E15),"",真值表!E15)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E15" s="47" t="str">
         <f>IF(真值表!F15=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F15=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;</v>
       </c>
       <c r="F15" s="47" t="str">
         <f>IF(真值表!G15=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G15=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G15" s="47" t="str">
         <f>IF(真值表!H15=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H15=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H15" s="47" t="str">
         <f>IF(真值表!I15=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I15=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I15" s="47" t="str">
         <f>IF(真值表!J15=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J15=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F12&amp;</v>
       </c>
       <c r="J15" s="46" t="str">
         <f>IF(真值表!K15=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K15=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K15" s="46" t="str">
         <f>IF(真值表!L15=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L15=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="L15" s="46" t="str">
         <f>IF(真值表!M15=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M15=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M15" s="46" t="str">
         <f>IF(真值表!N15=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N15=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N15" s="46" t="str">
         <f>IF(真值表!O15=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O15=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O15" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P15" s="49" t="str">
         <f>IF(真值表!Q15=1,$O15&amp;"+","")</f>
@@ -9432,7 +9830,7 @@
       </c>
       <c r="S15" s="49" t="str">
         <f>IF(真值表!T15=1,$O15&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T15" s="49" t="str">
         <f>IF(真值表!U15=1,$O15&amp;"+","")</f>
@@ -9444,11 +9842,11 @@
       </c>
       <c r="V15" s="49" t="str">
         <f>IF(真值表!W15=1,$O15&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W15" s="49" t="str">
         <f>IF(真值表!X15=1,$O15&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X15" s="49" t="str">
         <f>IF(真值表!Y15=1,$O15&amp;"+","")</f>
@@ -9492,7 +9890,7 @@
       </c>
       <c r="AH15" s="49" t="str">
         <f>IF(真值表!AI15=1,$O15&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI15" s="49" t="str">
         <f>IF(真值表!AJ15=1,$O15&amp;"+","")</f>
@@ -9511,7 +9909,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="str">
         <f>IF(ISBLANK(真值表!B16),"",真值表!B16)</f>
         <v>lw</v>
@@ -9520,13 +9918,13 @@
         <f>IF(ISBLANK(真值表!C16),"",真值表!C16)</f>
         <v/>
       </c>
-      <c r="C16" s="37" t="str">
+      <c r="C16" s="37">
         <f>IF(ISBLANK(真值表!D16),"",真值表!D16)</f>
-        <v/>
-      </c>
-      <c r="D16" s="36" t="str">
+        <v>2</v>
+      </c>
+      <c r="D16" s="36">
         <f>IF(ISBLANK(真值表!E16),"",真值表!E16)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E16" s="55" t="str">
         <f>IF(真值表!F16=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F16=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -9538,39 +9936,39 @@
       </c>
       <c r="G16" s="55" t="str">
         <f>IF(真值表!H16=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H16=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H16" s="55" t="str">
         <f>IF(真值表!I16=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I16=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I16" s="55" t="str">
         <f>IF(真值表!J16=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J16=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J16" s="54" t="str">
         <f>IF(真值表!K16=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K16=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K16" s="54" t="str">
         <f>IF(真值表!L16=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L16=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="L16" s="54" t="str">
         <f>IF(真值表!M16=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M16=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="M16" s="54" t="str">
         <f>IF(真值表!N16=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N16=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N16" s="54" t="str">
         <f>IF(真值表!O16=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O16=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O16" s="53" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P16" s="24" t="str">
         <f>IF(真值表!Q16=1,$O16&amp;"+","")</f>
@@ -9578,7 +9976,7 @@
       </c>
       <c r="Q16" s="24" t="str">
         <f>IF(真值表!R16=1,$O16&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R16" s="24" t="str">
         <f>IF(真值表!S16=1,$O16&amp;"+","")</f>
@@ -9586,11 +9984,11 @@
       </c>
       <c r="S16" s="24" t="str">
         <f>IF(真值表!T16=1,$O16&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T16" s="24" t="str">
         <f>IF(真值表!U16=1,$O16&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="U16" s="24" t="str">
         <f>IF(真值表!V16=1,$O16&amp;"+","")</f>
@@ -9598,11 +9996,11 @@
       </c>
       <c r="V16" s="24" t="str">
         <f>IF(真值表!W16=1,$O16&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W16" s="24" t="str">
         <f>IF(真值表!X16=1,$O16&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X16" s="24" t="str">
         <f>IF(真值表!Y16=1,$O16&amp;"+","")</f>
@@ -9646,7 +10044,7 @@
       </c>
       <c r="AH16" s="24" t="str">
         <f>IF(真值表!AI16=1,$O16&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI16" s="24" t="str">
         <f>IF(真值表!AJ16=1,$O16&amp;"+","")</f>
@@ -9665,7 +10063,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="50" t="str">
         <f>IF(ISBLANK(真值表!B17),"",真值表!B17)</f>
         <v>sw</v>
@@ -9674,13 +10072,13 @@
         <f>IF(ISBLANK(真值表!C17),"",真值表!C17)</f>
         <v/>
       </c>
-      <c r="C17" s="52" t="str">
+      <c r="C17" s="52">
         <f>IF(ISBLANK(真值表!D17),"",真值表!D17)</f>
-        <v/>
-      </c>
-      <c r="D17" s="51" t="str">
+        <v>2</v>
+      </c>
+      <c r="D17" s="51">
         <f>IF(ISBLANK(真值表!E17),"",真值表!E17)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="E17" s="47" t="str">
         <f>IF(真值表!F17=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F17=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -9692,39 +10090,39 @@
       </c>
       <c r="G17" s="47" t="str">
         <f>IF(真值表!H17=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H17=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H17" s="47" t="str">
         <f>IF(真值表!I17=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I17=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I17" s="47" t="str">
         <f>IF(真值表!J17=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J17=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J17" s="46" t="str">
         <f>IF(真值表!K17=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K17=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K17" s="46" t="str">
         <f>IF(真值表!L17=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L17=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L17" s="46" t="str">
         <f>IF(真值表!M17=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M17=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="M17" s="46" t="str">
         <f>IF(真值表!N17=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N17=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N17" s="46" t="str">
         <f>IF(真值表!O17=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O17=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O17" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P17" s="49" t="str">
         <f>IF(真值表!Q17=1,$O17&amp;"+","")</f>
@@ -9732,7 +10130,7 @@
       </c>
       <c r="Q17" s="49" t="str">
         <f>IF(真值表!R17=1,$O17&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R17" s="49" t="str">
         <f>IF(真值表!S17=1,$O17&amp;"+","")</f>
@@ -9740,7 +10138,7 @@
       </c>
       <c r="S17" s="49" t="str">
         <f>IF(真值表!T17=1,$O17&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T17" s="49" t="str">
         <f>IF(真值表!U17=1,$O17&amp;"+","")</f>
@@ -9748,11 +10146,11 @@
       </c>
       <c r="U17" s="49" t="str">
         <f>IF(真值表!V17=1,$O17&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="V17" s="49" t="str">
         <f>IF(真值表!W17=1,$O17&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W17" s="49" t="str">
         <f>IF(真值表!X17=1,$O17&amp;"+","")</f>
@@ -9764,7 +10162,7 @@
       </c>
       <c r="Y17" s="49" t="str">
         <f>IF(真值表!Z17=1,$O17&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Z17" s="49" t="str">
         <f>IF(真值表!AA17=1,$O17&amp;"+","")</f>
@@ -9800,11 +10198,11 @@
       </c>
       <c r="AH17" s="49" t="str">
         <f>IF(真值表!AI17=1,$O17&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI17" s="49" t="str">
         <f>IF(真值表!AJ17=1,$O17&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AJ17" s="49" t="str">
         <f>IF(真值表!AK17=1,$O17&amp;"+","")</f>
@@ -9819,66 +10217,66 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="str">
         <f>IF(ISBLANK(真值表!B18),"",真值表!B18)</f>
         <v>ecall</v>
       </c>
-      <c r="B18" s="37" t="str">
+      <c r="B18" s="37">
         <f>IF(ISBLANK(真值表!C18),"",真值表!C18)</f>
-        <v/>
-      </c>
-      <c r="C18" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="C18" s="37">
         <f>IF(ISBLANK(真值表!D18),"",真值表!D18)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D18" s="36" t="str">
         <f>IF(ISBLANK(真值表!E18),"",真值表!E18)</f>
-        <v/>
+        <v>1c</v>
       </c>
       <c r="E18" s="55" t="str">
         <f>IF(真值表!F18=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F18=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F18" s="55" t="str">
         <f>IF(真值表!G18=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G18=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G18" s="55" t="str">
         <f>IF(真值表!H18=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H18=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H18" s="55" t="str">
         <f>IF(真值表!I18=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I18=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I18" s="55" t="str">
         <f>IF(真值表!J18=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J18=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J18" s="54" t="str">
         <f>IF(真值表!K18=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K18=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp;</v>
       </c>
       <c r="K18" s="54" t="str">
         <f>IF(真值表!L18=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L18=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L18" s="54" t="str">
         <f>IF(真值表!M18=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M18=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M18" s="54" t="str">
         <f>IF(真值表!N18=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N18=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N18" s="54" t="str">
         <f>IF(真值表!O18=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O18=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O18" s="53" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P18" s="24" t="str">
         <f>IF(真值表!Q18=1,$O18&amp;"+","")</f>
@@ -9914,7 +10312,7 @@
       </c>
       <c r="X18" s="24" t="str">
         <f>IF(真值表!Y18=1,$O18&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Y18" s="24" t="str">
         <f>IF(真值表!Z18=1,$O18&amp;"+","")</f>
@@ -9954,11 +10352,11 @@
       </c>
       <c r="AH18" s="24" t="str">
         <f>IF(真值表!AI18=1,$O18&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI18" s="24" t="str">
         <f>IF(真值表!AJ18=1,$O18&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AJ18" s="24" t="str">
         <f>IF(真值表!AK18=1,$O18&amp;"+","")</f>
@@ -9973,7 +10371,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="50" t="str">
         <f>IF(ISBLANK(真值表!B19),"",真值表!B19)</f>
         <v>beq</v>
@@ -9982,13 +10380,13 @@
         <f>IF(ISBLANK(真值表!C19),"",真值表!C19)</f>
         <v/>
       </c>
-      <c r="C19" s="52" t="str">
+      <c r="C19" s="52">
         <f>IF(ISBLANK(真值表!D19),"",真值表!D19)</f>
-        <v/>
-      </c>
-      <c r="D19" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="D19" s="51">
         <f>IF(ISBLANK(真值表!E19),"",真值表!E19)</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="E19" s="47" t="str">
         <f>IF(真值表!F19=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F19=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -10000,39 +10398,39 @@
       </c>
       <c r="G19" s="47" t="str">
         <f>IF(真值表!H19=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H19=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H19" s="47" t="str">
         <f>IF(真值表!I19=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I19=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I19" s="47" t="str">
         <f>IF(真值表!J19=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J19=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J19" s="46" t="str">
         <f>IF(真值表!K19=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K19=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp;</v>
       </c>
       <c r="K19" s="46" t="str">
         <f>IF(真值表!L19=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L19=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L19" s="46" t="str">
         <f>IF(真值表!M19=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M19=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="M19" s="46" t="str">
         <f>IF(真值表!N19=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N19=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N19" s="46" t="str">
         <f>IF(真值表!O19=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O19=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O19" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P19" s="49" t="str">
         <f>IF(真值表!Q19=1,$O19&amp;"+","")</f>
@@ -10040,7 +10438,7 @@
       </c>
       <c r="Q19" s="49" t="str">
         <f>IF(真值表!R19=1,$O19&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R19" s="49" t="str">
         <f>IF(真值表!S19=1,$O19&amp;"+","")</f>
@@ -10048,7 +10446,7 @@
       </c>
       <c r="S19" s="49" t="str">
         <f>IF(真值表!T19=1,$O19&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T19" s="49" t="str">
         <f>IF(真值表!U19=1,$O19&amp;"+","")</f>
@@ -10076,7 +10474,7 @@
       </c>
       <c r="Z19" s="49" t="str">
         <f>IF(真值表!AA19=1,$O19&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AA19" s="49" t="str">
         <f>IF(真值表!AB19=1,$O19&amp;"+","")</f>
@@ -10108,11 +10506,11 @@
       </c>
       <c r="AH19" s="49" t="str">
         <f>IF(真值表!AI19=1,$O19&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI19" s="49" t="str">
         <f>IF(真值表!AJ19=1,$O19&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AJ19" s="49" t="str">
         <f>IF(真值表!AK19=1,$O19&amp;"+","")</f>
@@ -10127,7 +10525,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="str">
         <f>IF(ISBLANK(真值表!B20),"",真值表!B20)</f>
         <v>bne</v>
@@ -10136,13 +10534,13 @@
         <f>IF(ISBLANK(真值表!C20),"",真值表!C20)</f>
         <v/>
       </c>
-      <c r="C20" s="37" t="str">
+      <c r="C20" s="37">
         <f>IF(ISBLANK(真值表!D20),"",真值表!D20)</f>
-        <v/>
-      </c>
-      <c r="D20" s="36" t="str">
+        <v>1</v>
+      </c>
+      <c r="D20" s="36">
         <f>IF(ISBLANK(真值表!E20),"",真值表!E20)</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="E20" s="55" t="str">
         <f>IF(真值表!F20=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F20=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -10154,39 +10552,39 @@
       </c>
       <c r="G20" s="55" t="str">
         <f>IF(真值表!H20=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H20=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H20" s="55" t="str">
         <f>IF(真值表!I20=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I20=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I20" s="55" t="str">
         <f>IF(真值表!J20=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J20=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F12&amp;</v>
       </c>
       <c r="J20" s="54" t="str">
         <f>IF(真值表!K20=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K20=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp;</v>
       </c>
       <c r="K20" s="54" t="str">
         <f>IF(真值表!L20=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L20=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L20" s="54" t="str">
         <f>IF(真值表!M20=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M20=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="M20" s="54" t="str">
         <f>IF(真值表!N20=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N20=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N20" s="54" t="str">
         <f>IF(真值表!O20=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O20=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O20" s="53" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P20" s="24" t="str">
         <f>IF(真值表!Q20=1,$O20&amp;"+","")</f>
@@ -10194,7 +10592,7 @@
       </c>
       <c r="Q20" s="24" t="str">
         <f>IF(真值表!R20=1,$O20&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R20" s="24" t="str">
         <f>IF(真值表!S20=1,$O20&amp;"+","")</f>
@@ -10202,7 +10600,7 @@
       </c>
       <c r="S20" s="24" t="str">
         <f>IF(真值表!T20=1,$O20&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T20" s="24" t="str">
         <f>IF(真值表!U20=1,$O20&amp;"+","")</f>
@@ -10234,7 +10632,7 @@
       </c>
       <c r="AA20" s="24" t="str">
         <f>IF(真值表!AB20=1,$O20&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AB20" s="24" t="str">
         <f>IF(真值表!AC20=1,$O20&amp;"+","")</f>
@@ -10262,11 +10660,11 @@
       </c>
       <c r="AH20" s="24" t="str">
         <f>IF(真值表!AI20=1,$O20&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI20" s="24" t="str">
         <f>IF(真值表!AJ20=1,$O20&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AJ20" s="24" t="str">
         <f>IF(真值表!AK20=1,$O20&amp;"+","")</f>
@@ -10281,7 +10679,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="str">
         <f>IF(ISBLANK(真值表!B21),"",真值表!B21)</f>
         <v>jal</v>
@@ -10296,7 +10694,7 @@
       </c>
       <c r="D21" s="51" t="str">
         <f>IF(ISBLANK(真值表!E21),"",真值表!E21)</f>
-        <v/>
+        <v>1b</v>
       </c>
       <c r="E21" s="47" t="str">
         <f>IF(真值表!F21=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F21=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -10320,27 +10718,27 @@
       </c>
       <c r="J21" s="46" t="str">
         <f>IF(真值表!K21=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K21=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp;</v>
       </c>
       <c r="K21" s="46" t="str">
         <f>IF(真值表!L21=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L21=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L21" s="46" t="str">
         <f>IF(真值表!M21=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M21=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="M21" s="46" t="str">
         <f>IF(真值表!N21=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N21=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP3&amp;</v>
       </c>
       <c r="N21" s="46" t="str">
         <f>IF(真值表!O21=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O21=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP2&amp;</v>
       </c>
       <c r="O21" s="48" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v xml:space="preserve"> OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2</v>
       </c>
       <c r="P21" s="49" t="str">
         <f>IF(真值表!Q21=1,$O21&amp;"+","")</f>
@@ -10348,7 +10746,7 @@
       </c>
       <c r="Q21" s="49" t="str">
         <f>IF(真值表!R21=1,$O21&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
       </c>
       <c r="R21" s="49" t="str">
         <f>IF(真值表!S21=1,$O21&amp;"+","")</f>
@@ -10356,7 +10754,7 @@
       </c>
       <c r="S21" s="49" t="str">
         <f>IF(真值表!T21=1,$O21&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
       </c>
       <c r="T21" s="49" t="str">
         <f>IF(真值表!U21=1,$O21&amp;"+","")</f>
@@ -10372,7 +10770,7 @@
       </c>
       <c r="W21" s="49" t="str">
         <f>IF(真值表!X21=1,$O21&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
       </c>
       <c r="X21" s="49" t="str">
         <f>IF(真值表!Y21=1,$O21&amp;"+","")</f>
@@ -10392,7 +10790,7 @@
       </c>
       <c r="AB21" s="49" t="str">
         <f>IF(真值表!AC21=1,$O21&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
       </c>
       <c r="AC21" s="49" t="str">
         <f>IF(真值表!AD21=1,$O21&amp;"+","")</f>
@@ -10435,7 +10833,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="str">
         <f>IF(ISBLANK(真值表!B22),"",真值表!B22)</f>
         <v>jalr</v>
@@ -10444,13 +10842,13 @@
         <f>IF(ISBLANK(真值表!C22),"",真值表!C22)</f>
         <v/>
       </c>
-      <c r="C22" s="37" t="str">
+      <c r="C22" s="37">
         <f>IF(ISBLANK(真值表!D22),"",真值表!D22)</f>
-        <v/>
-      </c>
-      <c r="D22" s="36" t="str">
+        <v>0</v>
+      </c>
+      <c r="D22" s="36">
         <f>IF(ISBLANK(真值表!E22),"",真值表!E22)</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="E22" s="55" t="str">
         <f>IF(真值表!F22=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F22=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -10462,39 +10860,39 @@
       </c>
       <c r="G22" s="55" t="str">
         <f>IF(真值表!H22=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H22=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H22" s="55" t="str">
         <f>IF(真值表!I22=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I22=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I22" s="55" t="str">
         <f>IF(真值表!J22=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J22=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J22" s="54" t="str">
         <f>IF(真值表!K22=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K22=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp;</v>
       </c>
       <c r="K22" s="54" t="str">
         <f>IF(真值表!L22=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L22=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L22" s="54" t="str">
         <f>IF(真值表!M22=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M22=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="M22" s="54" t="str">
         <f>IF(真值表!N22=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N22=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N22" s="54" t="str">
         <f>IF(真值表!O22=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O22=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP2&amp;</v>
       </c>
       <c r="O22" s="53" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2</v>
       </c>
       <c r="P22" s="24" t="str">
         <f>IF(真值表!Q22=1,$O22&amp;"+","")</f>
@@ -10502,7 +10900,7 @@
       </c>
       <c r="Q22" s="24" t="str">
         <f>IF(真值表!R22=1,$O22&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="R22" s="24" t="str">
         <f>IF(真值表!S22=1,$O22&amp;"+","")</f>
@@ -10510,7 +10908,7 @@
       </c>
       <c r="S22" s="24" t="str">
         <f>IF(真值表!T22=1,$O22&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="T22" s="24" t="str">
         <f>IF(真值表!U22=1,$O22&amp;"+","")</f>
@@ -10522,11 +10920,11 @@
       </c>
       <c r="V22" s="24" t="str">
         <f>IF(真值表!W22=1,$O22&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="W22" s="24" t="str">
         <f>IF(真值表!X22=1,$O22&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="X22" s="24" t="str">
         <f>IF(真值表!Y22=1,$O22&amp;"+","")</f>
@@ -10550,7 +10948,7 @@
       </c>
       <c r="AC22" s="24" t="str">
         <f>IF(真值表!AD22=1,$O22&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="AD22" s="24" t="str">
         <f>IF(真值表!AE22=1,$O22&amp;"+","")</f>
@@ -10570,7 +10968,7 @@
       </c>
       <c r="AH22" s="24" t="str">
         <f>IF(真值表!AI22=1,$O22&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="AI22" s="24" t="str">
         <f>IF(真值表!AJ22=1,$O22&amp;"+","")</f>
@@ -10589,7 +10987,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="50" t="str">
         <f>IF(ISBLANK(真值表!B23),"",真值表!B23)</f>
         <v>CSRRSI</v>
@@ -10598,13 +10996,13 @@
         <f>IF(ISBLANK(真值表!C23),"",真值表!C23)</f>
         <v/>
       </c>
-      <c r="C23" s="52" t="str">
+      <c r="C23" s="52">
         <f>IF(ISBLANK(真值表!D23),"",真值表!D23)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="D23" s="51" t="str">
         <f>IF(ISBLANK(真值表!E23),"",真值表!E23)</f>
-        <v/>
+        <v>1c</v>
       </c>
       <c r="E23" s="47" t="str">
         <f>IF(真值表!F23=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F23=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -10616,39 +11014,39 @@
       </c>
       <c r="G23" s="47" t="str">
         <f>IF(真值表!H23=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H23=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H23" s="47" t="str">
         <f>IF(真值表!I23=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I23=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I23" s="47" t="str">
         <f>IF(真值表!J23=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J23=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J23" s="46" t="str">
         <f>IF(真值表!K23=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K23=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp;</v>
       </c>
       <c r="K23" s="46" t="str">
         <f>IF(真值表!L23=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L23=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L23" s="46" t="str">
         <f>IF(真值表!M23=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M23=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M23" s="46" t="str">
         <f>IF(真值表!N23=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N23=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N23" s="46" t="str">
         <f>IF(真值表!O23=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O23=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O23" s="48" t="str">
         <f t="shared" ref="O23:O57" si="1">IF(LEN(CONCATENATE(E23,F23,G23,H23,I23,J23,K23,L23,M23,N23))=0,"",LEFT(CONCATENATE(E23,F23,G23,H23,I23,J23,K23,L23,M23,N23),LEN(CONCATENATE(E23,F23,G23,H23,I23,J23,K23,L23,M23,N23))-1))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P23" s="49" t="str">
         <f>IF(真值表!Q23=1,$O23&amp;"+","")</f>
@@ -10736,14 +11134,14 @@
       </c>
       <c r="AK23" s="49" t="str">
         <f>IF(真值表!AL23=1,$O23&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL23" s="49" t="str">
         <f>IF(真值表!AM23=1,$O23&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="str">
         <f>IF(ISBLANK(真值表!B24),"",真值表!B24)</f>
         <v>CSRRCI</v>
@@ -10752,13 +11150,13 @@
         <f>IF(ISBLANK(真值表!C24),"",真值表!C24)</f>
         <v/>
       </c>
-      <c r="C24" s="37" t="str">
+      <c r="C24" s="37">
         <f>IF(ISBLANK(真值表!D24),"",真值表!D24)</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="D24" s="36" t="str">
         <f>IF(ISBLANK(真值表!E24),"",真值表!E24)</f>
-        <v/>
+        <v>1c</v>
       </c>
       <c r="E24" s="55" t="str">
         <f>IF(真值表!F24=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F24=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -10770,39 +11168,39 @@
       </c>
       <c r="G24" s="55" t="str">
         <f>IF(真值表!H24=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H24=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H24" s="55" t="str">
         <f>IF(真值表!I24=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I24=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I24" s="55" t="str">
         <f>IF(真值表!J24=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J24=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F12&amp;</v>
       </c>
       <c r="J24" s="54" t="str">
         <f>IF(真值表!K24=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K24=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp;</v>
       </c>
       <c r="K24" s="54" t="str">
         <f>IF(真值表!L24=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L24=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L24" s="54" t="str">
         <f>IF(真值表!M24=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M24=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M24" s="54" t="str">
         <f>IF(真值表!N24=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N24=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N24" s="54" t="str">
         <f>IF(真值表!O24=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O24=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O24" s="53" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P24" s="24" t="str">
         <f>IF(真值表!Q24=1,$O24&amp;"+","")</f>
@@ -10894,69 +11292,69 @@
       </c>
       <c r="AL24" s="24" t="str">
         <f>IF(真值表!AM24=1,$O24&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="50" t="str">
         <f>IF(ISBLANK(真值表!B25),"",真值表!B25)</f>
         <v>URET</v>
       </c>
-      <c r="B25" s="45" t="str">
+      <c r="B25" s="45">
         <f>IF(ISBLANK(真值表!C25),"",真值表!C25)</f>
-        <v/>
-      </c>
-      <c r="C25" s="52" t="str">
+        <v>2</v>
+      </c>
+      <c r="C25" s="52">
         <f>IF(ISBLANK(真值表!D25),"",真值表!D25)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D25" s="51" t="str">
         <f>IF(ISBLANK(真值表!E25),"",真值表!E25)</f>
-        <v/>
+        <v>1c</v>
       </c>
       <c r="E25" s="47" t="str">
         <f>IF(真值表!F25=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F25=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F25" s="47" t="str">
         <f>IF(真值表!G25=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G25=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G25" s="47" t="str">
         <f>IF(真值表!H25=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H25=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H25" s="47" t="str">
         <f>IF(真值表!I25=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I25=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I25" s="47" t="str">
         <f>IF(真值表!J25=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J25=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J25" s="46" t="str">
         <f>IF(真值表!K25=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K25=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp;</v>
       </c>
       <c r="K25" s="46" t="str">
         <f>IF(真值表!L25=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L25=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L25" s="46" t="str">
         <f>IF(真值表!M25=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M25=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M25" s="46" t="str">
         <f>IF(真值表!N25=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N25=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N25" s="46" t="str">
         <f>IF(真值表!O25=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O25=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O25" s="48" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P25" s="49" t="str">
         <f>IF(真值表!Q25=1,$O25&amp;"+","")</f>
@@ -10992,7 +11390,7 @@
       </c>
       <c r="X25" s="49" t="str">
         <f>IF(真值表!Y25=1,$O25&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Y25" s="49" t="str">
         <f>IF(真值表!Z25=1,$O25&amp;"+","")</f>
@@ -11051,66 +11449,66 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="str">
         <f>IF(ISBLANK(真值表!B26),"",真值表!B26)</f>
-        <v/>
-      </c>
-      <c r="B26" s="37" t="str">
+        <v>SRL</v>
+      </c>
+      <c r="B26" s="37">
         <f>IF(ISBLANK(真值表!C26),"",真值表!C26)</f>
-        <v/>
-      </c>
-      <c r="C26" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="C26" s="37">
         <f>IF(ISBLANK(真值表!D26),"",真值表!D26)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="D26" s="36" t="str">
         <f>IF(ISBLANK(真值表!E26),"",真值表!E26)</f>
-        <v/>
+        <v>c</v>
       </c>
       <c r="E26" s="55" t="str">
         <f>IF(真值表!F26=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F26=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F26" s="55" t="str">
         <f>IF(真值表!G26=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G26=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G26" s="55" t="str">
         <f>IF(真值表!H26=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H26=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H26" s="55" t="str">
         <f>IF(真值表!I26=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I26=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I26" s="55" t="str">
         <f>IF(真值表!J26=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J26=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F12&amp;</v>
       </c>
       <c r="J26" s="54" t="str">
         <f>IF(真值表!K26=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K26=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K26" s="54" t="str">
         <f>IF(真值表!L26=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L26=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L26" s="54" t="str">
         <f>IF(真值表!M26=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M26=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M26" s="54" t="str">
         <f>IF(真值表!N26=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N26=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N26" s="54" t="str">
         <f>IF(真值表!O26=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O26=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O26" s="53" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P26" s="24" t="str">
         <f>IF(真值表!Q26=1,$O26&amp;"+","")</f>
@@ -11122,7 +11520,7 @@
       </c>
       <c r="R26" s="24" t="str">
         <f>IF(真值表!S26=1,$O26&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S26" s="24" t="str">
         <f>IF(真值表!T26=1,$O26&amp;"+","")</f>
@@ -11142,7 +11540,7 @@
       </c>
       <c r="W26" s="24" t="str">
         <f>IF(真值表!X26=1,$O26&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X26" s="24" t="str">
         <f>IF(真值表!Y26=1,$O26&amp;"+","")</f>
@@ -11186,11 +11584,11 @@
       </c>
       <c r="AH26" s="24" t="str">
         <f>IF(真值表!AI26=1,$O26&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI26" s="24" t="str">
         <f>IF(真值表!AJ26=1,$O26&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AJ26" s="24" t="str">
         <f>IF(真值表!AK26=1,$O26&amp;"+","")</f>
@@ -11205,10 +11603,10 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="str">
         <f>IF(ISBLANK(真值表!B27),"",真值表!B27)</f>
-        <v/>
+        <v>AUIPC</v>
       </c>
       <c r="B27" s="45" t="str">
         <f>IF(ISBLANK(真值表!C27),"",真值表!C27)</f>
@@ -11218,9 +11616,9 @@
         <f>IF(ISBLANK(真值表!D27),"",真值表!D27)</f>
         <v/>
       </c>
-      <c r="D27" s="51" t="str">
+      <c r="D27" s="51">
         <f>IF(ISBLANK(真值表!E27),"",真值表!E27)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="E27" s="47" t="str">
         <f>IF(真值表!F27=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F27=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -11244,27 +11642,27 @@
       </c>
       <c r="J27" s="46" t="str">
         <f>IF(真值表!K27=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K27=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K27" s="46" t="str">
         <f>IF(真值表!L27=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L27=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="L27" s="46" t="str">
         <f>IF(真值表!M27=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M27=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M27" s="46" t="str">
         <f>IF(真值表!N27=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N27=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N27" s="46" t="str">
         <f>IF(真值表!O27=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O27=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP2&amp;</v>
       </c>
       <c r="O27" s="48" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2</v>
       </c>
       <c r="P27" s="49" t="str">
         <f>IF(真值表!Q27=1,$O27&amp;"+","")</f>
@@ -11296,7 +11694,7 @@
       </c>
       <c r="W27" s="49" t="str">
         <f>IF(真值表!X27=1,$O27&amp;"+","")</f>
-        <v/>
+        <v>~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="X27" s="49" t="str">
         <f>IF(真值表!Y27=1,$O27&amp;"+","")</f>
@@ -11328,7 +11726,7 @@
       </c>
       <c r="AE27" s="49" t="str">
         <f>IF(真值表!AF27=1,$O27&amp;"+","")</f>
-        <v/>
+        <v>~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="AF27" s="49" t="str">
         <f>IF(真值表!AG27=1,$O27&amp;"+","")</f>
@@ -11359,10 +11757,10 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="str">
         <f>IF(ISBLANK(真值表!B28),"",真值表!B28)</f>
-        <v/>
+        <v>LBU</v>
       </c>
       <c r="B28" s="37" t="str">
         <f>IF(ISBLANK(真值表!C28),"",真值表!C28)</f>
@@ -11372,9 +11770,9 @@
         <f>IF(ISBLANK(真值表!D28),"",真值表!D28)</f>
         <v/>
       </c>
-      <c r="D28" s="36" t="str">
+      <c r="D28" s="36">
         <f>IF(ISBLANK(真值表!E28),"",真值表!E28)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E28" s="55" t="str">
         <f>IF(真值表!F28=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F28=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -11398,27 +11796,27 @@
       </c>
       <c r="J28" s="54" t="str">
         <f>IF(真值表!K28=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K28=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K28" s="54" t="str">
         <f>IF(真值表!L28=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L28=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP5&amp;</v>
       </c>
       <c r="L28" s="54" t="str">
         <f>IF(真值表!M28=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M28=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="M28" s="54" t="str">
         <f>IF(真值表!N28=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N28=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N28" s="54" t="str">
         <f>IF(真值表!O28=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O28=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O28" s="53" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P28" s="24" t="str">
         <f>IF(真值表!Q28=1,$O28&amp;"+","")</f>
@@ -11438,7 +11836,7 @@
       </c>
       <c r="T28" s="24" t="str">
         <f>IF(真值表!U28=1,$O28&amp;"+","")</f>
-        <v/>
+        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="U28" s="24" t="str">
         <f>IF(真值表!V28=1,$O28&amp;"+","")</f>
@@ -11446,11 +11844,11 @@
       </c>
       <c r="V28" s="24" t="str">
         <f>IF(真值表!W28=1,$O28&amp;"+","")</f>
-        <v/>
+        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W28" s="24" t="str">
         <f>IF(真值表!X28=1,$O28&amp;"+","")</f>
-        <v/>
+        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X28" s="24" t="str">
         <f>IF(真值表!Y28=1,$O28&amp;"+","")</f>
@@ -11486,7 +11884,7 @@
       </c>
       <c r="AF28" s="24" t="str">
         <f>IF(真值表!AG28=1,$O28&amp;"+","")</f>
-        <v/>
+        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AG28" s="24" t="str">
         <f>IF(真值表!AH28=1,$O28&amp;"+","")</f>
@@ -11494,7 +11892,7 @@
       </c>
       <c r="AH28" s="24" t="str">
         <f>IF(真值表!AI28=1,$O28&amp;"+","")</f>
-        <v/>
+        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI28" s="24" t="str">
         <f>IF(真值表!AJ28=1,$O28&amp;"+","")</f>
@@ -11513,22 +11911,22 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="50" t="str">
         <f>IF(ISBLANK(真值表!B29),"",真值表!B29)</f>
-        <v/>
+        <v>BLTU</v>
       </c>
       <c r="B29" s="45" t="str">
         <f>IF(ISBLANK(真值表!C29),"",真值表!C29)</f>
         <v/>
       </c>
-      <c r="C29" s="52" t="str">
+      <c r="C29" s="52">
         <f>IF(ISBLANK(真值表!D29),"",真值表!D29)</f>
-        <v/>
-      </c>
-      <c r="D29" s="51" t="str">
+        <v>6</v>
+      </c>
+      <c r="D29" s="51">
         <f>IF(ISBLANK(真值表!E29),"",真值表!E29)</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="E29" s="47" t="str">
         <f>IF(真值表!F29=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F29=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -11540,47 +11938,47 @@
       </c>
       <c r="G29" s="47" t="str">
         <f>IF(真值表!H29=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H29=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H29" s="47" t="str">
         <f>IF(真值表!I29=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I29=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F13&amp;</v>
       </c>
       <c r="I29" s="47" t="str">
         <f>IF(真值表!J29=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J29=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J29" s="46" t="str">
         <f>IF(真值表!K29=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K29=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp;</v>
       </c>
       <c r="K29" s="46" t="str">
         <f>IF(真值表!L29=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L29=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L29" s="46" t="str">
         <f>IF(真值表!M29=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M29=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="M29" s="46" t="str">
         <f>IF(真值表!N29=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N29=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N29" s="46" t="str">
         <f>IF(真值表!O29=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O29=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O29" s="48" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P29" s="49" t="str">
         <f>IF(真值表!Q29=1,$O29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q29" s="49" t="str">
         <f>IF(真值表!R29=1,$O29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R29" s="49" t="str">
         <f>IF(真值表!S29=1,$O29&amp;"+","")</f>
@@ -11632,7 +12030,7 @@
       </c>
       <c r="AD29" s="49" t="str">
         <f>IF(真值表!AE29=1,$O29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AE29" s="49" t="str">
         <f>IF(真值表!AF29=1,$O29&amp;"+","")</f>
@@ -11648,11 +12046,11 @@
       </c>
       <c r="AH29" s="49" t="str">
         <f>IF(真值表!AI29=1,$O29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI29" s="49" t="str">
         <f>IF(真值表!AJ29=1,$O29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AJ29" s="49" t="str">
         <f>IF(真值表!AK29=1,$O29&amp;"+","")</f>
@@ -11667,7 +12065,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="str">
         <f>IF(ISBLANK(真值表!B30),"",真值表!B30)</f>
         <v/>
@@ -11821,7 +12219,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="50" t="str">
         <f>IF(ISBLANK(真值表!B31),"",真值表!B31)</f>
         <v/>
@@ -11975,7 +12373,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="str">
         <f>IF(ISBLANK(真值表!B32),"",真值表!B32)</f>
         <v/>
@@ -12129,7 +12527,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="50" t="str">
         <f>IF(ISBLANK(真值表!B33),"",真值表!B33)</f>
         <v/>
@@ -12283,7 +12681,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="str">
         <f>IF(ISBLANK(真值表!B34),"",真值表!B34)</f>
         <v/>
@@ -12437,7 +12835,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="50" t="str">
         <f>IF(ISBLANK(真值表!B35),"",真值表!B35)</f>
         <v/>
@@ -12591,7 +12989,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="str">
         <f>IF(ISBLANK(真值表!B36),"",真值表!B36)</f>
         <v/>
@@ -12745,7 +13143,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="50" t="str">
         <f>IF(ISBLANK(真值表!B37),"",真值表!B37)</f>
         <v/>
@@ -12899,7 +13297,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="str">
         <f>IF(ISBLANK(真值表!B38),"",真值表!B38)</f>
         <v/>
@@ -13053,7 +13451,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="50" t="str">
         <f>IF(ISBLANK(真值表!B39),"",真值表!B39)</f>
         <v/>
@@ -13207,7 +13605,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="str">
         <f>IF(ISBLANK(真值表!B40),"",真值表!B40)</f>
         <v/>
@@ -13361,7 +13759,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="50" t="str">
         <f>IF(ISBLANK(真值表!B41),"",真值表!B41)</f>
         <v/>
@@ -13515,7 +13913,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="31" t="str">
         <f>IF(ISBLANK(真值表!B42),"",真值表!B42)</f>
         <v/>
@@ -13669,7 +14067,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="50" t="str">
         <f>IF(ISBLANK(真值表!B43),"",真值表!B43)</f>
         <v/>
@@ -13823,7 +14221,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="31" t="str">
         <f>IF(ISBLANK(真值表!B44),"",真值表!B44)</f>
         <v/>
@@ -13977,7 +14375,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="50" t="str">
         <f>IF(ISBLANK(真值表!B45),"",真值表!B45)</f>
         <v/>
@@ -14131,7 +14529,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="31" t="str">
         <f>IF(ISBLANK(真值表!B46),"",真值表!B46)</f>
         <v/>
@@ -14285,7 +14683,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="50" t="str">
         <f>IF(ISBLANK(真值表!B47),"",真值表!B47)</f>
         <v/>
@@ -14439,7 +14837,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:38" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="str">
         <f>IF(ISBLANK(真值表!B48),"",真值表!B48)</f>
         <v/>
@@ -14593,7 +14991,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="50" t="str">
         <f>IF(ISBLANK(真值表!B49),"",真值表!B49)</f>
         <v/>
@@ -14747,7 +15145,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="31" t="str">
         <f>IF(ISBLANK(真值表!B50),"",真值表!B50)</f>
         <v/>
@@ -14901,7 +15299,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="50" t="str">
         <f>IF(ISBLANK(真值表!B51),"",真值表!B51)</f>
         <v/>
@@ -15055,7 +15453,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="31" t="str">
         <f>IF(ISBLANK(真值表!B52),"",真值表!B52)</f>
         <v/>
@@ -15209,7 +15607,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="50" t="str">
         <f>IF(ISBLANK(真值表!B53),"",真值表!B53)</f>
         <v/>
@@ -15363,7 +15761,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="31" t="str">
         <f>IF(ISBLANK(真值表!B54),"",真值表!B54)</f>
         <v/>
@@ -15517,7 +15915,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="50" t="str">
         <f>IF(ISBLANK(真值表!B55),"",真值表!B55)</f>
         <v/>
@@ -15671,7 +16069,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="31" t="str">
         <f>IF(ISBLANK(真值表!B56),"",真值表!B56)</f>
         <v/>
@@ -15825,7 +16223,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:50" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="50" t="str">
         <f>IF(ISBLANK(真值表!B57),"",真值表!B57)</f>
         <v/>
@@ -15979,9 +16377,9 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:50" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" s="71"/>
       <c r="C58" s="71"/>
@@ -15999,71 +16397,71 @@
       <c r="O58" s="72"/>
       <c r="P58" s="30" t="str">
         <f t="shared" ref="P58:AL58" si="2">IF(LEN(P59)&gt;1,LEFT(P59,LEN(P59)-1),"")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="Q58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="R58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="S58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2</v>
       </c>
       <c r="T58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="U58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="V58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="W58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="X58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="Y58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="Z58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AA58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AB58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve"> OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2</v>
       </c>
       <c r="AC58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2</v>
       </c>
       <c r="AD58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AE58" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2</v>
       </c>
       <c r="AF58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AG58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16071,11 +16469,11 @@
       </c>
       <c r="AH58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AI58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AJ58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16083,87 +16481,87 @@
       </c>
       <c r="AK58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AL58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.2">
       <c r="P59" t="str">
         <f>CONCATENATE(P2,P3,P4,P5,P6,P7,P8,P9,P10,P11,P12,P13,P14,P15,P16,P17,P18,P19,P20,P21,P22,P23,P24,P25,P26,P27,P28,P29,P30,P31,P32,P33,P34,P35,P36,P37,P38,P39,P40,P41,P42,P43,P44,P45,P46,P47,P48,P49,P50,P51,P52,P53,P54,P55,P56,P57,
 )</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q59" t="str">
         <f>CONCATENATE(Q2,Q3,Q4,Q5,Q6,Q7,Q8,Q9,Q10,Q11,Q12,Q13,Q14,Q15,Q16,Q17,Q18,Q19,Q20,Q21,Q22,Q23,Q24,Q25,Q26,Q27,Q28,Q29,Q30,Q31,Q32,Q33,Q34,Q35,Q36,Q37,Q38,Q39,Q40,Q41,Q42,Q43,Q44,Q45,Q46,Q47,Q48,Q49,Q50,Q51,Q52,Q53,Q54,Q55,Q56,Q57,
 )</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R59" t="str">
         <f>CONCATENATE(R2,R3,R4,R5,R6,R7,R8,R9,R10,R11,R12,R13,R14,R15,R16,R17,R18,R19,R20,R21,R22,R23,R24,R25,R26,R27,R28,R29,R30,R31,R32,R33,R34,R35,R36,R37,R38,R39,R40,R41,R42,R43,R44,R45,R46,R47,R48,R49,R50,R51,R52,R53,R54,R55,R56,R57,
 )</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S59" t="str">
         <f>CONCATENATE(S2,S3,S4,S5,S6,S7,S8,S9,S10,S11,S12,S13,S14,S15,S16,S17,S18,S19,S20,S21,S22,S23,S24,S25,S26,S27,S28,S29,S30,S31,S32,S33,S34,S35,S36,S37,S38,S39,S40,S41,S42,S43,S44,S45,S46,S47,S48,S49,S50,S51,S52,S53,S54,S55,S56,S57,
 )</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="T59" t="str">
         <f>CONCATENATE(T2,T3,T4,T5,T6,T7,T8,T9,T10,T11,T12,T13,T14,T15,T16,T17,T18,T19,T20,T21,T22,T23,T24,T25,T26,T27,T28,T29,T30,T31,T32,T33,T34,T35,T36,T37,T38,T39,T40,T41,T42,T43,T44,T45,T46,T47,T48,T49,T50,T51,T52,T53,T54,T55,T56,T57,
 )</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="U59" t="str">
         <f t="shared" ref="U59:AX59" si="3">CONCATENATE(U2,U3,U4,U5,U6,U7,U8,U9,U10,U11,U12,U13,U14,U15,U16,U17,U18,U19,U20,U21,U22,U23,U24,U25,U26,U27,U28,U29,U30,U31,U32,U33,U34,U35,U36,U37,U38,U39,U40,U41,U42,U43,U44,U45,U46,U47,U48,U49,U50,U51,U52,U53,U54,U55,U56,U57,
 )</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="V59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Y59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Z59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AA59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AB59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve"> OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+</v>
       </c>
       <c r="AC59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="AD59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AE59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="AF59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AG59" t="str">
         <f t="shared" si="3"/>
@@ -16171,11 +16569,11 @@
       </c>
       <c r="AH59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AJ59" t="str">
         <f t="shared" si="3"/>
@@ -16183,11 +16581,11 @@
       </c>
       <c r="AK59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AM59" t="str">
         <f t="shared" si="3"/>
@@ -16238,9 +16636,9 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:50" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="P61" s="73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q61" s="73"/>
       <c r="R61" s="73"/>
@@ -16258,9 +16656,9 @@
       <c r="AD61" s="18"/>
       <c r="AE61" s="18"/>
     </row>
-    <row r="63" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:50" ht="15" x14ac:dyDescent="0.2">
       <c r="Q63" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -16300,14 +16698,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="688" yWindow="772" count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="逻辑表达式最小项" prompt="当前指令Opcode以及Func字段的逻辑表达式" sqref="O62:O1048576 O59:O60 O1:O57" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="AE1 AE60 AE62:AE1048576" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="运算器功能选择端ALU_OP 的四位" prompt="S3 S2 S1 S0" sqref="P1:S1" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选对应信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制该列的表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="Q64:Q1048576 Q62 P62:P1048576 P60 Q60 R60:S60 R62:S1048576" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="用户自定义控制信号" prompt="可直接将前列公式复制过来即可" sqref="AF60:AI1048576 AF1:AL1" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路。_x000a__x000a_另外重新筛选其他信号逻辑表达式时，应该先去掉原筛选！！！" sqref="U1:AD1 U59:AX59 P61 U60:AD60 T62:AD1048576 T1:T60 U2:AL58 P2:S59" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态状态位" prompt="次态状态位逻辑表达式生成" sqref="Q63" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="逻辑表达式最小项" prompt="当前指令Opcode以及Func字段的逻辑表达式" sqref="O62:O1048576 O59:O60 O1:O57"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="AE1 AE60 AE62:AE1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="运算器功能选择端ALU_OP 的四位" prompt="S3 S2 S1 S0" sqref="P1:S1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选对应信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制该列的表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="Q64:Q1048576 Q62 P62:P1048576 P60 Q60 R60:S60 R62:S1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="用户自定义控制信号" prompt="可直接将前列公式复制过来即可" sqref="AF60:AI1048576 AF1:AL1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路。_x000a__x000a_另外重新筛选其他信号逻辑表达式时，应该先去掉原筛选！！！" sqref="U1:AD1 U59:AX59 P61 U60:AD60 T62:AD1048576 T1:T60 U2:AL58 P2:S59"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态状态位" prompt="次态状态位逻辑表达式生成" sqref="Q63"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16316,123 +16714,123 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="49.58203125" customWidth="1"/>
+    <col min="3" max="3" width="49.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13" t="s">
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13" t="s">
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="B4" s="12">
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="B5" s="12">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="B6" s="12">
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="B7" s="12">
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="B8" s="12">
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="B9" s="12">
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>1000</v>
       </c>
@@ -16440,10 +16838,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>1001</v>
       </c>
@@ -16451,10 +16849,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1010</v>
       </c>
@@ -16462,10 +16860,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>1011</v>
       </c>
@@ -16473,10 +16871,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>1100</v>
       </c>
@@ -16484,7 +16882,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -16494,38 +16892,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -16533,13 +16931,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -16547,83 +16945,83 @@
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>94</v>
-      </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -16631,52 +17029,52 @@
         <v>12</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="66.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="66.599999999999994" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
+++ b/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\803-113\Desktop\cpu-cjw\cpu21-riscv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjw\Desktop\cpu-cjw\cpu21-riscv\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E785AB26-A10C-41D6-A120-F375B47DDFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11610" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -21,12 +22,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">控制信号表达式生成!$A$1:$AI$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">真值表!$A$1:$AK$25</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="120">
   <si>
     <t>#</t>
   </si>
@@ -921,22 +922,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>SRL</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUIPC</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>LBU</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLTU</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>c</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -952,35 +937,11 @@
     <t>1c</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
-  <si>
-    <t>R1</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSRRSI</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSRRCI</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>U_Type</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>LBU</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1712,107 +1673,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2199,14 +2060,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39994506668294322"/>
   </sheetPr>
   <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2319,29 +2180,15 @@
       <c r="AD1" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF1" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG1" s="25" t="s">
-        <v>129</v>
-      </c>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
       <c r="AH1" s="25"/>
-      <c r="AI1" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ1" s="25" t="s">
-        <v>125</v>
-      </c>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
       <c r="AK1" s="25"/>
-      <c r="AL1" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM1" s="25" t="s">
-        <v>127</v>
-      </c>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
       <c r="AN1" s="17" t="s">
         <v>13</v>
       </c>
@@ -2437,12 +2284,8 @@
       <c r="AF2" s="31"/>
       <c r="AG2" s="36"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="36">
-        <v>1</v>
-      </c>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
       <c r="AK2" s="36"/>
       <c r="AL2" s="36"/>
       <c r="AM2" s="36"/>
@@ -2538,12 +2381,8 @@
       <c r="AF3" s="57"/>
       <c r="AG3" s="58"/>
       <c r="AH3" s="58"/>
-      <c r="AI3" s="58">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="58">
-        <v>1</v>
-      </c>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
       <c r="AK3" s="58"/>
       <c r="AL3" s="58"/>
       <c r="AM3" s="58"/>
@@ -2562,7 +2401,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F4" s="20">
         <f t="shared" si="12"/>
@@ -2639,12 +2478,8 @@
       <c r="AF4" s="31"/>
       <c r="AG4" s="36"/>
       <c r="AH4" s="36"/>
-      <c r="AI4" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="36">
-        <v>1</v>
-      </c>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
       <c r="AK4" s="36"/>
       <c r="AL4" s="36"/>
       <c r="AM4" s="36"/>
@@ -2663,7 +2498,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F5" s="59">
         <f t="shared" si="12"/>
@@ -2740,12 +2575,8 @@
       <c r="AF5" s="57"/>
       <c r="AG5" s="58"/>
       <c r="AH5" s="58"/>
-      <c r="AI5" s="58">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="58">
-        <v>1</v>
-      </c>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
       <c r="AK5" s="58"/>
       <c r="AL5" s="58"/>
       <c r="AM5" s="58"/>
@@ -2764,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F6" s="20">
         <f t="shared" si="12"/>
@@ -2841,12 +2672,8 @@
       <c r="AF6" s="31"/>
       <c r="AG6" s="36"/>
       <c r="AH6" s="36"/>
-      <c r="AI6" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="36">
-        <v>1</v>
-      </c>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
       <c r="AK6" s="36"/>
       <c r="AL6" s="36"/>
       <c r="AM6" s="36"/>
@@ -2865,7 +2692,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F7" s="59">
         <f t="shared" si="12"/>
@@ -2942,12 +2769,8 @@
       <c r="AF7" s="57"/>
       <c r="AG7" s="58"/>
       <c r="AH7" s="58"/>
-      <c r="AI7" s="58">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="58">
-        <v>1</v>
-      </c>
+      <c r="AI7" s="58"/>
+      <c r="AJ7" s="58"/>
       <c r="AK7" s="58"/>
       <c r="AL7" s="58"/>
       <c r="AM7" s="58"/>
@@ -3043,9 +2866,7 @@
       <c r="AF8" s="31"/>
       <c r="AG8" s="36"/>
       <c r="AH8" s="36"/>
-      <c r="AI8" s="36">
-        <v>1</v>
-      </c>
+      <c r="AI8" s="36"/>
       <c r="AJ8" s="36"/>
       <c r="AK8" s="36"/>
       <c r="AL8" s="36"/>
@@ -3142,9 +2963,7 @@
       <c r="AF9" s="57"/>
       <c r="AG9" s="58"/>
       <c r="AH9" s="58"/>
-      <c r="AI9" s="58">
-        <v>1</v>
-      </c>
+      <c r="AI9" s="58"/>
       <c r="AJ9" s="58"/>
       <c r="AK9" s="58"/>
       <c r="AL9" s="58"/>
@@ -3241,9 +3060,7 @@
       <c r="AF10" s="31"/>
       <c r="AG10" s="36"/>
       <c r="AH10" s="36"/>
-      <c r="AI10" s="36">
-        <v>1</v>
-      </c>
+      <c r="AI10" s="36"/>
       <c r="AJ10" s="36"/>
       <c r="AK10" s="36"/>
       <c r="AL10" s="36"/>
@@ -3340,9 +3157,7 @@
       <c r="AF11" s="57"/>
       <c r="AG11" s="58"/>
       <c r="AH11" s="58"/>
-      <c r="AI11" s="58">
-        <v>1</v>
-      </c>
+      <c r="AI11" s="58"/>
       <c r="AJ11" s="58"/>
       <c r="AK11" s="58"/>
       <c r="AL11" s="58"/>
@@ -3439,9 +3254,7 @@
       <c r="AF12" s="31"/>
       <c r="AG12" s="36"/>
       <c r="AH12" s="36"/>
-      <c r="AI12" s="36">
-        <v>1</v>
-      </c>
+      <c r="AI12" s="36"/>
       <c r="AJ12" s="36"/>
       <c r="AK12" s="36"/>
       <c r="AL12" s="36"/>
@@ -3540,9 +3353,7 @@
       <c r="AF13" s="57"/>
       <c r="AG13" s="58"/>
       <c r="AH13" s="58"/>
-      <c r="AI13" s="58">
-        <v>1</v>
-      </c>
+      <c r="AI13" s="58"/>
       <c r="AJ13" s="58"/>
       <c r="AK13" s="58"/>
       <c r="AL13" s="58"/>
@@ -3641,9 +3452,7 @@
       <c r="AF14" s="31"/>
       <c r="AG14" s="36"/>
       <c r="AH14" s="36"/>
-      <c r="AI14" s="36">
-        <v>1</v>
-      </c>
+      <c r="AI14" s="36"/>
       <c r="AJ14" s="36"/>
       <c r="AK14" s="36"/>
       <c r="AL14" s="36"/>
@@ -3742,9 +3551,7 @@
       <c r="AF15" s="57"/>
       <c r="AG15" s="58"/>
       <c r="AH15" s="58"/>
-      <c r="AI15" s="58">
-        <v>1</v>
-      </c>
+      <c r="AI15" s="58"/>
       <c r="AJ15" s="58"/>
       <c r="AK15" s="58"/>
       <c r="AL15" s="58"/>
@@ -3843,9 +3650,7 @@
       <c r="AF16" s="31"/>
       <c r="AG16" s="36"/>
       <c r="AH16" s="36"/>
-      <c r="AI16" s="36">
-        <v>1</v>
-      </c>
+      <c r="AI16" s="36"/>
       <c r="AJ16" s="36"/>
       <c r="AK16" s="36"/>
       <c r="AL16" s="36"/>
@@ -3944,12 +3749,8 @@
       <c r="AF17" s="57"/>
       <c r="AG17" s="58"/>
       <c r="AH17" s="58"/>
-      <c r="AI17" s="58">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="58">
-        <v>1</v>
-      </c>
+      <c r="AI17" s="58"/>
+      <c r="AJ17" s="58"/>
       <c r="AK17" s="58"/>
       <c r="AL17" s="58"/>
       <c r="AM17" s="58"/>
@@ -3968,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F18" s="20">
         <f t="shared" si="12"/>
@@ -4043,12 +3844,8 @@
       <c r="AF18" s="31"/>
       <c r="AG18" s="36"/>
       <c r="AH18" s="36"/>
-      <c r="AI18" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="36">
-        <v>1</v>
-      </c>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
       <c r="AK18" s="36"/>
       <c r="AL18" s="36"/>
       <c r="AM18" s="36"/>
@@ -4142,12 +3939,8 @@
       <c r="AF19" s="57"/>
       <c r="AG19" s="58"/>
       <c r="AH19" s="58"/>
-      <c r="AI19" s="58">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="58">
-        <v>1</v>
-      </c>
+      <c r="AI19" s="58"/>
+      <c r="AJ19" s="58"/>
       <c r="AK19" s="58"/>
       <c r="AL19" s="58"/>
       <c r="AM19" s="58"/>
@@ -4241,12 +4034,8 @@
       <c r="AF20" s="31"/>
       <c r="AG20" s="36"/>
       <c r="AH20" s="36"/>
-      <c r="AI20" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="36">
-        <v>1</v>
-      </c>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
       <c r="AK20" s="36"/>
       <c r="AL20" s="36"/>
       <c r="AM20" s="36"/>
@@ -4261,7 +4050,7 @@
       <c r="C21" s="44"/>
       <c r="D21" s="59"/>
       <c r="E21" s="61" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F21" s="59" t="str">
         <f t="shared" si="12"/>
@@ -4439,9 +4228,7 @@
       <c r="AF22" s="31"/>
       <c r="AG22" s="36"/>
       <c r="AH22" s="36"/>
-      <c r="AI22" s="36">
-        <v>1</v>
-      </c>
+      <c r="AI22" s="36"/>
       <c r="AJ22" s="36"/>
       <c r="AK22" s="36"/>
       <c r="AL22" s="36"/>
@@ -4459,7 +4246,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="61" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F23" s="59" t="str">
         <f t="shared" si="12"/>
@@ -4535,9 +4322,7 @@
       <c r="AI23" s="58"/>
       <c r="AJ23" s="58"/>
       <c r="AK23" s="58"/>
-      <c r="AL23" s="58">
-        <v>1</v>
-      </c>
+      <c r="AL23" s="58"/>
       <c r="AM23" s="58"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.3">
@@ -4552,7 +4337,7 @@
         <v>7</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F24" s="20" t="str">
         <f t="shared" si="12"/>
@@ -4629,9 +4414,7 @@
       <c r="AJ24" s="36"/>
       <c r="AK24" s="36"/>
       <c r="AL24" s="36"/>
-      <c r="AM24" s="36">
-        <v>1</v>
-      </c>
+      <c r="AM24" s="36"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="57">
@@ -4647,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F25" s="59">
         <f t="shared" si="12"/>
@@ -4732,83 +4515,29 @@
       <c r="A26" s="35">
         <v>25</v>
       </c>
-      <c r="B26" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="37">
-        <v>0</v>
-      </c>
-      <c r="D26" s="37">
-        <v>5</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I26" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="29">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K26" s="36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="36">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M26" s="36">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N26" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="64">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="38">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="39">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="39">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="39">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="T26" s="39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
       <c r="U26" s="31"/>
       <c r="V26" s="31"/>
       <c r="W26" s="31"/>
-      <c r="X26" s="31">
-        <v>1</v>
-      </c>
+      <c r="X26" s="31"/>
       <c r="Y26" s="31"/>
       <c r="Z26" s="31"/>
       <c r="AA26" s="31"/>
@@ -4819,12 +4548,8 @@
       <c r="AF26" s="31"/>
       <c r="AG26" s="36"/>
       <c r="AH26" s="36"/>
-      <c r="AI26" s="36">
-        <v>1</v>
-      </c>
-      <c r="AJ26" s="36">
-        <v>1</v>
-      </c>
+      <c r="AI26" s="36"/>
+      <c r="AJ26" s="36"/>
       <c r="AK26" s="36"/>
       <c r="AL26" s="36"/>
       <c r="AM26" s="36"/>
@@ -4833,77 +4558,29 @@
       <c r="A27" s="57">
         <v>26</v>
       </c>
-      <c r="B27" s="57" t="s">
-        <v>117</v>
-      </c>
+      <c r="B27" s="57"/>
       <c r="C27" s="44"/>
       <c r="D27" s="59"/>
-      <c r="E27" s="61">
-        <v>5</v>
-      </c>
-      <c r="F27" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G27" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H27" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I27" s="59" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J27" s="61" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K27" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="60">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N27" s="60">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="65">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
+      <c r="E27" s="61"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="65"/>
       <c r="P27" s="62"/>
-      <c r="Q27" s="63" t="str">
-        <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R27" s="63" t="str">
-        <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S27" s="63" t="str">
-        <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T27" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>X</v>
-      </c>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
       <c r="U27" s="57"/>
       <c r="V27" s="57"/>
       <c r="W27" s="57"/>
-      <c r="X27" s="57">
-        <v>1</v>
-      </c>
+      <c r="X27" s="57"/>
       <c r="Y27" s="57"/>
       <c r="Z27" s="57"/>
       <c r="AA27" s="57"/>
@@ -4911,9 +4588,7 @@
       <c r="AC27" s="57"/>
       <c r="AD27" s="57"/>
       <c r="AE27" s="57"/>
-      <c r="AF27" s="57">
-        <v>1</v>
-      </c>
+      <c r="AF27" s="57"/>
       <c r="AG27" s="58"/>
       <c r="AH27" s="58"/>
       <c r="AI27" s="58"/>
@@ -4926,81 +4601,29 @@
       <c r="A28" s="35">
         <v>27</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>118</v>
-      </c>
+      <c r="B28" s="31"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="29">
-        <v>0</v>
-      </c>
-      <c r="F28" s="20" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G28" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H28" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I28" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J28" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K28" s="36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="36">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="64">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="64"/>
       <c r="P28" s="38"/>
-      <c r="Q28" s="39" t="str">
-        <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R28" s="39" t="str">
-        <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S28" s="39" t="str">
-        <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T28" s="39" t="str">
-        <f t="shared" si="11"/>
-        <v>X</v>
-      </c>
-      <c r="U28" s="31">
-        <v>1</v>
-      </c>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="31"/>
       <c r="V28" s="31"/>
-      <c r="W28" s="31">
-        <v>1</v>
-      </c>
-      <c r="X28" s="31">
-        <v>1</v>
-      </c>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
       <c r="Y28" s="31"/>
       <c r="Z28" s="31"/>
       <c r="AA28" s="31"/>
@@ -5009,13 +4632,9 @@
       <c r="AD28" s="31"/>
       <c r="AE28" s="31"/>
       <c r="AF28" s="31"/>
-      <c r="AG28" s="36">
-        <v>1</v>
-      </c>
+      <c r="AG28" s="36"/>
       <c r="AH28" s="36"/>
-      <c r="AI28" s="36">
-        <v>1</v>
-      </c>
+      <c r="AI28" s="36"/>
       <c r="AJ28" s="36"/>
       <c r="AK28" s="36"/>
       <c r="AL28" s="36"/>
@@ -5025,75 +4644,25 @@
       <c r="A29" s="57">
         <v>28</v>
       </c>
-      <c r="B29" s="57" t="s">
-        <v>119</v>
-      </c>
+      <c r="B29" s="57"/>
       <c r="C29" s="44"/>
-      <c r="D29" s="59">
-        <v>6</v>
-      </c>
-      <c r="E29" s="61">
-        <v>18</v>
-      </c>
-      <c r="F29" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G29" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H29" s="59">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I29" s="59">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J29" s="61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="60">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L29" s="60">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M29" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="60">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="65">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="62">
-        <v>12</v>
-      </c>
-      <c r="Q29" s="63">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="R29" s="63">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S29" s="63">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="63">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="D29" s="59"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
       <c r="U29" s="57"/>
       <c r="V29" s="57"/>
       <c r="W29" s="57"/>
@@ -5104,18 +4673,12 @@
       <c r="AB29" s="57"/>
       <c r="AC29" s="57"/>
       <c r="AD29" s="57"/>
-      <c r="AE29" s="57">
-        <v>1</v>
-      </c>
+      <c r="AE29" s="57"/>
       <c r="AF29" s="57"/>
       <c r="AG29" s="58"/>
       <c r="AH29" s="58"/>
-      <c r="AI29" s="58">
-        <v>1</v>
-      </c>
-      <c r="AJ29" s="58">
-        <v>1</v>
-      </c>
+      <c r="AI29" s="58"/>
+      <c r="AJ29" s="58"/>
       <c r="AK29" s="58"/>
       <c r="AL29" s="58"/>
       <c r="AM29" s="58"/>
@@ -7482,89 +7045,39 @@
     <protectedRange sqref="A1:E1048576" name="区域1" securityDescriptor=""/>
   </protectedRanges>
   <phoneticPr fontId="26" type="noConversion"/>
-  <conditionalFormatting sqref="AL1 U62:AF1048576 AJ62:AK1048576">
-    <cfRule type="cellIs" priority="23" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM1">
-    <cfRule type="cellIs" priority="22" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U1:AB1">
     <cfRule type="cellIs" priority="35" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ1:AK1">
-    <cfRule type="cellIs" priority="29" operator="notEqual">
+  <conditionalFormatting sqref="U62:AF1048576 AJ62:AK1048576">
+    <cfRule type="cellIs" priority="23" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AK3">
-    <cfRule type="cellIs" dxfId="14" priority="27" operator="equal">
+  <conditionalFormatting sqref="U2:AM61">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AM3">
-    <cfRule type="cellIs" dxfId="13" priority="24" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AH3">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI3">
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2:AF3">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL4:AM61">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG4:AH61">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI4:AI61">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4:AF61">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ4:AK61">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>1</formula>
+  <conditionalFormatting sqref="AJ1:AM1">
+    <cfRule type="cellIs" priority="22" operator="notEqual">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="输出信号" sqref="Q1:T1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="B1:B1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AluOP " prompt="AluOP 4位选择符二进制位_x000a_" sqref="Q2:T61"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="为1时填1，其他值不填_x000a__x000a_输入信号的标签用户可自行修改，也可在右侧自行增加列，新增控制信号" sqref="AG1:AM1048576 U26:AF1048576 U1:AF1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号情况" prompt="为1时填1，其他不填！" sqref="U2:AF25"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode" prompt="OpCode  6个二进制位" sqref="F62:F1048576 K1:O1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Func字段二进制位" prompt="Func字段6个二进制位" sqref="G2:J1048576 F2:F61"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Funct3(十进制)" prompt="输入RISC-V指令字的Funct3字段的10进制数，无Funct3字段不填，后续隐藏列会自动生成对应字段的二进制" sqref="D1:D1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Funct7(十进制)" prompt="输入RISC-V指令字的Funct7字段的10进制数，如果不关心这个字段不填，如果Funct7字段用作区分Funct3字段相同的指令，这个字段必须填写，0值也需要填写，后续隐藏列会自动生成对应字段的二进制" sqref="C1:C1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(10进制)" prompt="输入RISC-V指令字的Opcode高5位十进制数，后续隐藏列会自动生成该字段5位的二进制位" sqref="E1 E65:E1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ALU_OP" prompt="请输入当前指令的AluOp十进制编码，后续列会自动生成对应的二进制位，如不需要使用ALU可以不填" sqref="P1:P1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(16进制)" prompt="输入RISC-V指令字的Opcode高5位16制数，后续隐藏列会自动生成该字段5位的二进制位" sqref="E2:E64"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="输出信号" sqref="Q1:T1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AluOP " prompt="AluOP 4位选择符二进制位_x000a_" sqref="Q2:T61" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="为1时填1，其他值不填_x000a__x000a_输入信号的标签用户可自行修改，也可在右侧自行增加列，新增控制信号" sqref="AG1:AM1048576 U26:AF1048576 U1:AF1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号情况" prompt="为1时填1，其他不填！" sqref="U2:AF25" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode" prompt="OpCode  6个二进制位" sqref="F62:F1048576 K1:O1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Func字段二进制位" prompt="Func字段6个二进制位" sqref="G2:J1048576 F2:F61" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Funct3(十进制)" prompt="输入RISC-V指令字的Funct3字段的10进制数，无Funct3字段不填，后续隐藏列会自动生成对应字段的二进制" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Funct7(十进制)" prompt="输入RISC-V指令字的Funct7字段的10进制数，如果不关心这个字段不填，如果Funct7字段用作区分Funct3字段相同的指令，这个字段必须填写，0值也需要填写，后续隐藏列会自动生成对应字段的二进制" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(10进制)" prompt="输入RISC-V指令字的Opcode高5位十进制数，后续隐藏列会自动生成该字段5位的二进制位" sqref="E1 E65:E1048576" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ALU_OP" prompt="请输入当前指令的AluOp十进制编码，后续列会自动生成对应的二进制位，如不需要使用ALU可以不填" sqref="P1:P1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(16进制)" prompt="输入RISC-V指令字的Opcode高5位16制数，后续隐藏列会自动生成该字段5位的二进制位" sqref="E2:E64" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7572,7 +7085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -7580,7 +7093,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y71" sqref="Y71"/>
+      <selection pane="bottomLeft" activeCell="AK1" sqref="AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7716,41 +7229,41 @@
         <f>真值表!AD1</f>
         <v>jalr</v>
       </c>
-      <c r="AD1" s="23" t="str">
+      <c r="AD1" s="23">
         <f>真值表!AE1</f>
-        <v>BLTU</v>
-      </c>
-      <c r="AE1" s="23" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="23">
         <f>真值表!AF1</f>
-        <v>U_Type</v>
-      </c>
-      <c r="AF1" s="25" t="str">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="25">
         <f>真值表!AG1</f>
-        <v>LBU</v>
+        <v>0</v>
       </c>
       <c r="AG1" s="25">
         <f>真值表!AH1</f>
         <v>0</v>
       </c>
-      <c r="AH1" s="25" t="str">
+      <c r="AH1" s="25">
         <f>真值表!AI1</f>
-        <v>R1</v>
-      </c>
-      <c r="AI1" s="25" t="str">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="25">
         <f>真值表!AJ1</f>
-        <v>R2</v>
+        <v>0</v>
       </c>
       <c r="AJ1" s="25">
         <f>真值表!AK1</f>
         <v>0</v>
       </c>
-      <c r="AK1" s="25" t="str">
+      <c r="AK1" s="25">
         <f>真值表!AL1</f>
-        <v>CSRRSI</v>
-      </c>
-      <c r="AL1" s="25" t="str">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="25">
         <f>真值表!AM1</f>
-        <v>CSRRCI</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
@@ -7888,11 +7401,11 @@
       </c>
       <c r="AH2" s="24" t="str">
         <f>IF(真值表!AI2=1,$O2&amp;"+","")</f>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI2" s="24" t="str">
         <f>IF(真值表!AJ2=1,$O2&amp;"+","")</f>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AJ2" s="24" t="str">
         <f>IF(真值表!AK2=1,$O2&amp;"+","")</f>
@@ -8042,11 +7555,11 @@
       </c>
       <c r="AH3" s="49" t="str">
         <f>IF(真值表!AI3=1,$O3&amp;"+","")</f>
-        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI3" s="49" t="str">
         <f>IF(真值表!AJ3=1,$O3&amp;"+","")</f>
-        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AJ3" s="49" t="str">
         <f>IF(真值表!AK3=1,$O3&amp;"+","")</f>
@@ -8196,11 +7709,11 @@
       </c>
       <c r="AH4" s="24" t="str">
         <f>IF(真值表!AI4=1,$O4&amp;"+","")</f>
-        <v>~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI4" s="24" t="str">
         <f>IF(真值表!AJ4=1,$O4&amp;"+","")</f>
-        <v>~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AJ4" s="24" t="str">
         <f>IF(真值表!AK4=1,$O4&amp;"+","")</f>
@@ -8350,11 +7863,11 @@
       </c>
       <c r="AH5" s="49" t="str">
         <f>IF(真值表!AI5=1,$O5&amp;"+","")</f>
-        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI5" s="49" t="str">
         <f>IF(真值表!AJ5=1,$O5&amp;"+","")</f>
-        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AJ5" s="49" t="str">
         <f>IF(真值表!AK5=1,$O5&amp;"+","")</f>
@@ -8504,11 +8017,11 @@
       </c>
       <c r="AH6" s="24" t="str">
         <f>IF(真值表!AI6=1,$O6&amp;"+","")</f>
-        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI6" s="24" t="str">
         <f>IF(真值表!AJ6=1,$O6&amp;"+","")</f>
-        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AJ6" s="24" t="str">
         <f>IF(真值表!AK6=1,$O6&amp;"+","")</f>
@@ -8658,11 +8171,11 @@
       </c>
       <c r="AH7" s="49" t="str">
         <f>IF(真值表!AI7=1,$O7&amp;"+","")</f>
-        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI7" s="49" t="str">
         <f>IF(真值表!AJ7=1,$O7&amp;"+","")</f>
-        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AJ7" s="49" t="str">
         <f>IF(真值表!AK7=1,$O7&amp;"+","")</f>
@@ -8812,7 +8325,7 @@
       </c>
       <c r="AH8" s="24" t="str">
         <f>IF(真值表!AI8=1,$O8&amp;"+","")</f>
-        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI8" s="24" t="str">
         <f>IF(真值表!AJ8=1,$O8&amp;"+","")</f>
@@ -8966,7 +8479,7 @@
       </c>
       <c r="AH9" s="49" t="str">
         <f>IF(真值表!AI9=1,$O9&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI9" s="49" t="str">
         <f>IF(真值表!AJ9=1,$O9&amp;"+","")</f>
@@ -9120,7 +8633,7 @@
       </c>
       <c r="AH10" s="24" t="str">
         <f>IF(真值表!AI10=1,$O10&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI10" s="24" t="str">
         <f>IF(真值表!AJ10=1,$O10&amp;"+","")</f>
@@ -9274,7 +8787,7 @@
       </c>
       <c r="AH11" s="49" t="str">
         <f>IF(真值表!AI11=1,$O11&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI11" s="49" t="str">
         <f>IF(真值表!AJ11=1,$O11&amp;"+","")</f>
@@ -9428,7 +8941,7 @@
       </c>
       <c r="AH12" s="24" t="str">
         <f>IF(真值表!AI12=1,$O12&amp;"+","")</f>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI12" s="24" t="str">
         <f>IF(真值表!AJ12=1,$O12&amp;"+","")</f>
@@ -9582,7 +9095,7 @@
       </c>
       <c r="AH13" s="49" t="str">
         <f>IF(真值表!AI13=1,$O13&amp;"+","")</f>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI13" s="49" t="str">
         <f>IF(真值表!AJ13=1,$O13&amp;"+","")</f>
@@ -9736,7 +9249,7 @@
       </c>
       <c r="AH14" s="24" t="str">
         <f>IF(真值表!AI14=1,$O14&amp;"+","")</f>
-        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI14" s="24" t="str">
         <f>IF(真值表!AJ14=1,$O14&amp;"+","")</f>
@@ -9890,7 +9403,7 @@
       </c>
       <c r="AH15" s="49" t="str">
         <f>IF(真值表!AI15=1,$O15&amp;"+","")</f>
-        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI15" s="49" t="str">
         <f>IF(真值表!AJ15=1,$O15&amp;"+","")</f>
@@ -10044,7 +9557,7 @@
       </c>
       <c r="AH16" s="24" t="str">
         <f>IF(真值表!AI16=1,$O16&amp;"+","")</f>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI16" s="24" t="str">
         <f>IF(真值表!AJ16=1,$O16&amp;"+","")</f>
@@ -10198,11 +9711,11 @@
       </c>
       <c r="AH17" s="49" t="str">
         <f>IF(真值表!AI17=1,$O17&amp;"+","")</f>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI17" s="49" t="str">
         <f>IF(真值表!AJ17=1,$O17&amp;"+","")</f>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AJ17" s="49" t="str">
         <f>IF(真值表!AK17=1,$O17&amp;"+","")</f>
@@ -10352,11 +9865,11 @@
       </c>
       <c r="AH18" s="24" t="str">
         <f>IF(真值表!AI18=1,$O18&amp;"+","")</f>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI18" s="24" t="str">
         <f>IF(真值表!AJ18=1,$O18&amp;"+","")</f>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AJ18" s="24" t="str">
         <f>IF(真值表!AK18=1,$O18&amp;"+","")</f>
@@ -10506,11 +10019,11 @@
       </c>
       <c r="AH19" s="49" t="str">
         <f>IF(真值表!AI19=1,$O19&amp;"+","")</f>
-        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI19" s="49" t="str">
         <f>IF(真值表!AJ19=1,$O19&amp;"+","")</f>
-        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AJ19" s="49" t="str">
         <f>IF(真值表!AK19=1,$O19&amp;"+","")</f>
@@ -10660,11 +10173,11 @@
       </c>
       <c r="AH20" s="24" t="str">
         <f>IF(真值表!AI20=1,$O20&amp;"+","")</f>
-        <v>~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI20" s="24" t="str">
         <f>IF(真值表!AJ20=1,$O20&amp;"+","")</f>
-        <v>~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AJ20" s="24" t="str">
         <f>IF(真值表!AK20=1,$O20&amp;"+","")</f>
@@ -10968,7 +10481,7 @@
       </c>
       <c r="AH22" s="24" t="str">
         <f>IF(真值表!AI22=1,$O22&amp;"+","")</f>
-        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
+        <v/>
       </c>
       <c r="AI22" s="24" t="str">
         <f>IF(真值表!AJ22=1,$O22&amp;"+","")</f>
@@ -11134,7 +10647,7 @@
       </c>
       <c r="AK23" s="49" t="str">
         <f>IF(真值表!AL23=1,$O23&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AL23" s="49" t="str">
         <f>IF(真值表!AM23=1,$O23&amp;"+","")</f>
@@ -11292,7 +10805,7 @@
       </c>
       <c r="AL24" s="24" t="str">
         <f>IF(真值表!AM24=1,$O24&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
@@ -11452,19 +10965,19 @@
     <row r="26" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="str">
         <f>IF(ISBLANK(真值表!B26),"",真值表!B26)</f>
-        <v>SRL</v>
-      </c>
-      <c r="B26" s="37">
+        <v/>
+      </c>
+      <c r="B26" s="37" t="str">
         <f>IF(ISBLANK(真值表!C26),"",真值表!C26)</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="37">
+        <v/>
+      </c>
+      <c r="C26" s="37" t="str">
         <f>IF(ISBLANK(真值表!D26),"",真值表!D26)</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="D26" s="36" t="str">
         <f>IF(ISBLANK(真值表!E26),"",真值表!E26)</f>
-        <v>c</v>
+        <v/>
       </c>
       <c r="E26" s="55" t="str">
         <f>IF(真值表!F26=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F26=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -11476,7 +10989,7 @@
       </c>
       <c r="G26" s="55" t="str">
         <f>IF(真值表!H26=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H26=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v xml:space="preserve"> F14&amp;</v>
+        <v>~F14&amp;</v>
       </c>
       <c r="H26" s="55" t="str">
         <f>IF(真值表!I26=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I26=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
@@ -11484,7 +10997,7 @@
       </c>
       <c r="I26" s="55" t="str">
         <f>IF(真值表!J26=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J26=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v xml:space="preserve"> F12&amp;</v>
+        <v>~F12&amp;</v>
       </c>
       <c r="J26" s="54" t="str">
         <f>IF(真值表!K26=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K26=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
@@ -11492,11 +11005,11 @@
       </c>
       <c r="K26" s="54" t="str">
         <f>IF(真值表!L26=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L26=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v xml:space="preserve"> OP5&amp;</v>
+        <v>~OP5&amp;</v>
       </c>
       <c r="L26" s="54" t="str">
         <f>IF(真值表!M26=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M26=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v xml:space="preserve"> OP4&amp;</v>
+        <v>~OP4&amp;</v>
       </c>
       <c r="M26" s="54" t="str">
         <f>IF(真值表!N26=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N26=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
@@ -11508,7 +11021,7 @@
       </c>
       <c r="O26" s="53" t="str">
         <f t="shared" si="1"/>
-        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P26" s="24" t="str">
         <f>IF(真值表!Q26=1,$O26&amp;"+","")</f>
@@ -11520,7 +11033,7 @@
       </c>
       <c r="R26" s="24" t="str">
         <f>IF(真值表!S26=1,$O26&amp;"+","")</f>
-        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="S26" s="24" t="str">
         <f>IF(真值表!T26=1,$O26&amp;"+","")</f>
@@ -11540,7 +11053,7 @@
       </c>
       <c r="W26" s="24" t="str">
         <f>IF(真值表!X26=1,$O26&amp;"+","")</f>
-        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="X26" s="24" t="str">
         <f>IF(真值表!Y26=1,$O26&amp;"+","")</f>
@@ -11584,11 +11097,11 @@
       </c>
       <c r="AH26" s="24" t="str">
         <f>IF(真值表!AI26=1,$O26&amp;"+","")</f>
-        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI26" s="24" t="str">
         <f>IF(真值表!AJ26=1,$O26&amp;"+","")</f>
-        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AJ26" s="24" t="str">
         <f>IF(真值表!AK26=1,$O26&amp;"+","")</f>
@@ -11606,7 +11119,7 @@
     <row r="27" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="str">
         <f>IF(ISBLANK(真值表!B27),"",真值表!B27)</f>
-        <v>AUIPC</v>
+        <v/>
       </c>
       <c r="B27" s="45" t="str">
         <f>IF(ISBLANK(真值表!C27),"",真值表!C27)</f>
@@ -11616,29 +11129,29 @@
         <f>IF(ISBLANK(真值表!D27),"",真值表!D27)</f>
         <v/>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="51" t="str">
         <f>IF(ISBLANK(真值表!E27),"",真值表!E27)</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="E27" s="47" t="str">
         <f>IF(真值表!F27=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F27=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F27" s="47" t="str">
         <f>IF(真值表!G27=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G27=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G27" s="47" t="str">
         <f>IF(真值表!H27=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H27=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H27" s="47" t="str">
         <f>IF(真值表!I27=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I27=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I27" s="47" t="str">
         <f>IF(真值表!J27=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J27=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J27" s="46" t="str">
         <f>IF(真值表!K27=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K27=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
@@ -11650,7 +11163,7 @@
       </c>
       <c r="L27" s="46" t="str">
         <f>IF(真值表!M27=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M27=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v xml:space="preserve"> OP4&amp;</v>
+        <v>~OP4&amp;</v>
       </c>
       <c r="M27" s="46" t="str">
         <f>IF(真值表!N27=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N27=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
@@ -11658,11 +11171,11 @@
       </c>
       <c r="N27" s="46" t="str">
         <f>IF(真值表!O27=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O27=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v xml:space="preserve"> OP2&amp;</v>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O27" s="48" t="str">
         <f t="shared" si="1"/>
-        <v>~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P27" s="49" t="str">
         <f>IF(真值表!Q27=1,$O27&amp;"+","")</f>
@@ -11694,7 +11207,7 @@
       </c>
       <c r="W27" s="49" t="str">
         <f>IF(真值表!X27=1,$O27&amp;"+","")</f>
-        <v>~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2+</v>
+        <v/>
       </c>
       <c r="X27" s="49" t="str">
         <f>IF(真值表!Y27=1,$O27&amp;"+","")</f>
@@ -11726,7 +11239,7 @@
       </c>
       <c r="AE27" s="49" t="str">
         <f>IF(真值表!AF27=1,$O27&amp;"+","")</f>
-        <v>~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2+</v>
+        <v/>
       </c>
       <c r="AF27" s="49" t="str">
         <f>IF(真值表!AG27=1,$O27&amp;"+","")</f>
@@ -11760,7 +11273,7 @@
     <row r="28" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="str">
         <f>IF(ISBLANK(真值表!B28),"",真值表!B28)</f>
-        <v>LBU</v>
+        <v/>
       </c>
       <c r="B28" s="37" t="str">
         <f>IF(ISBLANK(真值表!C28),"",真值表!C28)</f>
@@ -11770,29 +11283,29 @@
         <f>IF(ISBLANK(真值表!D28),"",真值表!D28)</f>
         <v/>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="36" t="str">
         <f>IF(ISBLANK(真值表!E28),"",真值表!E28)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="E28" s="55" t="str">
         <f>IF(真值表!F28=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F28=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F28" s="55" t="str">
         <f>IF(真值表!G28=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G28=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G28" s="55" t="str">
         <f>IF(真值表!H28=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H28=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H28" s="55" t="str">
         <f>IF(真值表!I28=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I28=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I28" s="55" t="str">
         <f>IF(真值表!J28=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J28=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J28" s="54" t="str">
         <f>IF(真值表!K28=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K28=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
@@ -11816,7 +11329,7 @@
       </c>
       <c r="O28" s="53" t="str">
         <f t="shared" si="1"/>
-        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P28" s="24" t="str">
         <f>IF(真值表!Q28=1,$O28&amp;"+","")</f>
@@ -11836,7 +11349,7 @@
       </c>
       <c r="T28" s="24" t="str">
         <f>IF(真值表!U28=1,$O28&amp;"+","")</f>
-        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="U28" s="24" t="str">
         <f>IF(真值表!V28=1,$O28&amp;"+","")</f>
@@ -11844,11 +11357,11 @@
       </c>
       <c r="V28" s="24" t="str">
         <f>IF(真值表!W28=1,$O28&amp;"+","")</f>
-        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="W28" s="24" t="str">
         <f>IF(真值表!X28=1,$O28&amp;"+","")</f>
-        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="X28" s="24" t="str">
         <f>IF(真值表!Y28=1,$O28&amp;"+","")</f>
@@ -11884,7 +11397,7 @@
       </c>
       <c r="AF28" s="24" t="str">
         <f>IF(真值表!AG28=1,$O28&amp;"+","")</f>
-        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AG28" s="24" t="str">
         <f>IF(真值表!AH28=1,$O28&amp;"+","")</f>
@@ -11892,7 +11405,7 @@
       </c>
       <c r="AH28" s="24" t="str">
         <f>IF(真值表!AI28=1,$O28&amp;"+","")</f>
-        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI28" s="24" t="str">
         <f>IF(真值表!AJ28=1,$O28&amp;"+","")</f>
@@ -11914,35 +11427,35 @@
     <row r="29" spans="1:38" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="50" t="str">
         <f>IF(ISBLANK(真值表!B29),"",真值表!B29)</f>
-        <v>BLTU</v>
+        <v/>
       </c>
       <c r="B29" s="45" t="str">
         <f>IF(ISBLANK(真值表!C29),"",真值表!C29)</f>
         <v/>
       </c>
-      <c r="C29" s="52">
+      <c r="C29" s="52" t="str">
         <f>IF(ISBLANK(真值表!D29),"",真值表!D29)</f>
-        <v>6</v>
-      </c>
-      <c r="D29" s="51">
+        <v/>
+      </c>
+      <c r="D29" s="51" t="str">
         <f>IF(ISBLANK(真值表!E29),"",真值表!E29)</f>
-        <v>18</v>
+        <v/>
       </c>
       <c r="E29" s="47" t="str">
         <f>IF(真值表!F29=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F29=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F29" s="47" t="str">
         <f>IF(真值表!G29=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G29=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G29" s="47" t="str">
         <f>IF(真值表!H29=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H29=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v xml:space="preserve"> F14&amp;</v>
+        <v>~F14&amp;</v>
       </c>
       <c r="H29" s="47" t="str">
         <f>IF(真值表!I29=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I29=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v xml:space="preserve"> F13&amp;</v>
+        <v>~F13&amp;</v>
       </c>
       <c r="I29" s="47" t="str">
         <f>IF(真值表!J29=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J29=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
@@ -11950,11 +11463,11 @@
       </c>
       <c r="J29" s="46" t="str">
         <f>IF(真值表!K29=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K29=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v xml:space="preserve"> OP6&amp;</v>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K29" s="46" t="str">
         <f>IF(真值表!L29=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L29=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v xml:space="preserve"> OP5&amp;</v>
+        <v>~OP5&amp;</v>
       </c>
       <c r="L29" s="46" t="str">
         <f>IF(真值表!M29=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M29=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
@@ -11970,15 +11483,15 @@
       </c>
       <c r="O29" s="48" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P29" s="49" t="str">
         <f>IF(真值表!Q29=1,$O29&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="Q29" s="49" t="str">
         <f>IF(真值表!R29=1,$O29&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="R29" s="49" t="str">
         <f>IF(真值表!S29=1,$O29&amp;"+","")</f>
@@ -12030,7 +11543,7 @@
       </c>
       <c r="AD29" s="49" t="str">
         <f>IF(真值表!AE29=1,$O29&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AE29" s="49" t="str">
         <f>IF(真值表!AF29=1,$O29&amp;"+","")</f>
@@ -12046,11 +11559,11 @@
       </c>
       <c r="AH29" s="49" t="str">
         <f>IF(真值表!AI29=1,$O29&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI29" s="49" t="str">
         <f>IF(真值表!AJ29=1,$O29&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AJ29" s="49" t="str">
         <f>IF(真值表!AK29=1,$O29&amp;"+","")</f>
@@ -16397,15 +15910,15 @@
       <c r="O58" s="72"/>
       <c r="P58" s="30" t="str">
         <f t="shared" ref="P58:AL58" si="2">IF(LEN(P59)&gt;1,LEFT(P59,LEN(P59)-1),"")</f>
-        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="Q58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2</v>
       </c>
       <c r="R58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="S58" s="32" t="str">
         <f t="shared" si="2"/>
@@ -16413,7 +15926,7 @@
       </c>
       <c r="T58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="U58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16421,11 +15934,11 @@
       </c>
       <c r="V58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2</v>
       </c>
       <c r="W58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2</v>
       </c>
       <c r="X58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16453,15 +15966,15 @@
       </c>
       <c r="AD58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v/>
       </c>
       <c r="AE58" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2</v>
+        <v/>
       </c>
       <c r="AF58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v/>
       </c>
       <c r="AG58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16469,11 +15982,11 @@
       </c>
       <c r="AH58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v/>
       </c>
       <c r="AI58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v/>
       </c>
       <c r="AJ58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16481,28 +15994,28 @@
       </c>
       <c r="AK58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
+        <v/>
       </c>
       <c r="AL58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
+        <v/>
       </c>
     </row>
     <row r="59" spans="1:50" x14ac:dyDescent="0.2">
       <c r="P59" t="str">
         <f>CONCATENATE(P2,P3,P4,P5,P6,P7,P8,P9,P10,P11,P12,P13,P14,P15,P16,P17,P18,P19,P20,P21,P22,P23,P24,P25,P26,P27,P28,P29,P30,P31,P32,P33,P34,P35,P36,P37,P38,P39,P40,P41,P42,P43,P44,P45,P46,P47,P48,P49,P50,P51,P52,P53,P54,P55,P56,P57,
 )</f>
-        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q59" t="str">
         <f>CONCATENATE(Q2,Q3,Q4,Q5,Q6,Q7,Q8,Q9,Q10,Q11,Q12,Q13,Q14,Q15,Q16,Q17,Q18,Q19,Q20,Q21,Q22,Q23,Q24,Q25,Q26,Q27,Q28,Q29,Q30,Q31,Q32,Q33,Q34,Q35,Q36,Q37,Q38,Q39,Q40,Q41,Q42,Q43,Q44,Q45,Q46,Q47,Q48,Q49,Q50,Q51,Q52,Q53,Q54,Q55,Q56,Q57,
 )</f>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="R59" t="str">
         <f>CONCATENATE(R2,R3,R4,R5,R6,R7,R8,R9,R10,R11,R12,R13,R14,R15,R16,R17,R18,R19,R20,R21,R22,R23,R24,R25,R26,R27,R28,R29,R30,R31,R32,R33,R34,R35,R36,R37,R38,R39,R40,R41,R42,R43,R44,R45,R46,R47,R48,R49,R50,R51,R52,R53,R54,R55,R56,R57,
 )</f>
-        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S59" t="str">
         <f>CONCATENATE(S2,S3,S4,S5,S6,S7,S8,S9,S10,S11,S12,S13,S14,S15,S16,S17,S18,S19,S20,S21,S22,S23,S24,S25,S26,S27,S28,S29,S30,S31,S32,S33,S34,S35,S36,S37,S38,S39,S40,S41,S42,S43,S44,S45,S46,S47,S48,S49,S50,S51,S52,S53,S54,S55,S56,S57,
@@ -16512,7 +16025,7 @@
       <c r="T59" t="str">
         <f>CONCATENATE(T2,T3,T4,T5,T6,T7,T8,T9,T10,T11,T12,T13,T14,T15,T16,T17,T18,T19,T20,T21,T22,T23,T24,T25,T26,T27,T28,T29,T30,T31,T32,T33,T34,T35,T36,T37,T38,T39,T40,T41,T42,T43,T44,T45,T46,T47,T48,T49,T50,T51,T52,T53,T54,T55,T56,T57,
 )</f>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="U59" t="str">
         <f t="shared" ref="U59:AX59" si="3">CONCATENATE(U2,U3,U4,U5,U6,U7,U8,U9,U10,U11,U12,U13,U14,U15,U16,U17,U18,U19,U20,U21,U22,U23,U24,U25,U26,U27,U28,U29,U30,U31,U32,U33,U34,U35,U36,U37,U38,U39,U40,U41,U42,U43,U44,U45,U46,U47,U48,U49,U50,U51,U52,U53,U54,U55,U56,U57,
@@ -16521,11 +16034,11 @@
       </c>
       <c r="V59" t="str">
         <f t="shared" si="3"/>
-        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="W59" t="str">
         <f t="shared" si="3"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" si="3"/>
@@ -16553,15 +16066,15 @@
       </c>
       <c r="AD59" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AE59" t="str">
         <f t="shared" si="3"/>
-        <v>~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2+</v>
+        <v/>
       </c>
       <c r="AF59" t="str">
         <f t="shared" si="3"/>
-        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AG59" t="str">
         <f t="shared" si="3"/>
@@ -16569,11 +16082,11 @@
       </c>
       <c r="AH59" t="str">
         <f t="shared" si="3"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AI59" t="str">
         <f t="shared" si="3"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AJ59" t="str">
         <f t="shared" si="3"/>
@@ -16581,11 +16094,11 @@
       </c>
       <c r="AK59" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AL59" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="AM59" t="str">
         <f t="shared" si="3"/>
@@ -16672,40 +16185,35 @@
     <mergeCell ref="P61:AA61"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
-  <conditionalFormatting sqref="O1 AM59:AX59 P58:AL59">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+  <conditionalFormatting sqref="O1:AL1 AM59:AX59">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P60:AE60 P1:AE1 P64:AE1048576 P63 R63:AE63 P62:AE62 P2:AD3">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+  <conditionalFormatting sqref="P60:AE60 P62:AE62 P63 R63:AE63 P64:AE1048576">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF60:AI1048576 AF1:AL1">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AL57">
+  <conditionalFormatting sqref="P2:AL59">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4:AD57">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="AF60:AI1048576">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="688" yWindow="772" count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="逻辑表达式最小项" prompt="当前指令Opcode以及Func字段的逻辑表达式" sqref="O62:O1048576 O59:O60 O1:O57"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="AE1 AE60 AE62:AE1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="运算器功能选择端ALU_OP 的四位" prompt="S3 S2 S1 S0" sqref="P1:S1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选对应信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制该列的表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="Q64:Q1048576 Q62 P62:P1048576 P60 Q60 R60:S60 R62:S1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="用户自定义控制信号" prompt="可直接将前列公式复制过来即可" sqref="AF60:AI1048576 AF1:AL1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路。_x000a__x000a_另外重新筛选其他信号逻辑表达式时，应该先去掉原筛选！！！" sqref="U1:AD1 U59:AX59 P61 U60:AD60 T62:AD1048576 T1:T60 U2:AL58 P2:S59"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态状态位" prompt="次态状态位逻辑表达式生成" sqref="Q63"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="逻辑表达式最小项" prompt="当前指令Opcode以及Func字段的逻辑表达式" sqref="O62:O1048576 O59:O60 O1:O57" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="AE1 AE60 AE62:AE1048576" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="运算器功能选择端ALU_OP 的四位" prompt="S3 S2 S1 S0" sqref="P1:S1" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选对应信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制该列的表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="Q64:Q1048576 Q62 P62:P1048576 P60 Q60 R60:S60 R62:S1048576" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="用户自定义控制信号" prompt="可直接将前列公式复制过来即可" sqref="AF60:AI1048576 AF1:AL1" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路。_x000a__x000a_另外重新筛选其他信号逻辑表达式时，应该先去掉原筛选！！！" sqref="U1:AD1 U59:AX59 P61 U60:AD60 T62:AD1048576 T1:T60 U2:AL58 P2:S59" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态状态位" prompt="次态状态位逻辑表达式生成" sqref="Q63" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16714,7 +16222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -16892,7 +16400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>

--- a/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
+++ b/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\803-113\Desktop\cpu-cjw\cpu21-riscv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjw\Desktop\cpu-cjw\cpu21-riscv\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD858C93-1044-447C-96EA-3CBED4626395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11610" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">控制信号表达式生成!$A$1:$AI$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">真值表!$A$1:$AK$25</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -980,7 +981,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1712,107 +1713,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2199,14 +2100,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39994506668294322"/>
   </sheetPr>
   <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z67" sqref="Z67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4930,7 +4831,9 @@
         <v>118</v>
       </c>
       <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="D28" s="37">
+        <v>4</v>
+      </c>
       <c r="E28" s="29">
         <v>0</v>
       </c>
@@ -4942,17 +4845,17 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H28" s="20" t="str">
+      <c r="H28" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I28" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="I28" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J28" s="29" t="str">
+        <v>0</v>
+      </c>
+      <c r="J28" s="29">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K28" s="36">
         <f t="shared" si="3"/>
@@ -7482,89 +7385,39 @@
     <protectedRange sqref="A1:E1048576" name="区域1" securityDescriptor=""/>
   </protectedRanges>
   <phoneticPr fontId="26" type="noConversion"/>
-  <conditionalFormatting sqref="AL1 U62:AF1048576 AJ62:AK1048576">
-    <cfRule type="cellIs" priority="23" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM1">
-    <cfRule type="cellIs" priority="22" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U1:AB1">
     <cfRule type="cellIs" priority="35" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ1:AK1">
-    <cfRule type="cellIs" priority="29" operator="notEqual">
+  <conditionalFormatting sqref="U62:AF1048576 AJ62:AK1048576">
+    <cfRule type="cellIs" priority="23" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AK3">
-    <cfRule type="cellIs" dxfId="14" priority="27" operator="equal">
+  <conditionalFormatting sqref="U2:AM61">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AM3">
-    <cfRule type="cellIs" dxfId="13" priority="24" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AH3">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI3">
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2:AF3">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL4:AM61">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG4:AH61">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI4:AI61">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4:AF61">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ4:AK61">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>1</formula>
+  <conditionalFormatting sqref="AJ1:AM1">
+    <cfRule type="cellIs" priority="22" operator="notEqual">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="输出信号" sqref="Q1:T1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="B1:B1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AluOP " prompt="AluOP 4位选择符二进制位_x000a_" sqref="Q2:T61"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="为1时填1，其他值不填_x000a__x000a_输入信号的标签用户可自行修改，也可在右侧自行增加列，新增控制信号" sqref="AG1:AM1048576 U26:AF1048576 U1:AF1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号情况" prompt="为1时填1，其他不填！" sqref="U2:AF25"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode" prompt="OpCode  6个二进制位" sqref="F62:F1048576 K1:O1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Func字段二进制位" prompt="Func字段6个二进制位" sqref="G2:J1048576 F2:F61"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Funct3(十进制)" prompt="输入RISC-V指令字的Funct3字段的10进制数，无Funct3字段不填，后续隐藏列会自动生成对应字段的二进制" sqref="D1:D1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Funct7(十进制)" prompt="输入RISC-V指令字的Funct7字段的10进制数，如果不关心这个字段不填，如果Funct7字段用作区分Funct3字段相同的指令，这个字段必须填写，0值也需要填写，后续隐藏列会自动生成对应字段的二进制" sqref="C1:C1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(10进制)" prompt="输入RISC-V指令字的Opcode高5位十进制数，后续隐藏列会自动生成该字段5位的二进制位" sqref="E1 E65:E1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ALU_OP" prompt="请输入当前指令的AluOp十进制编码，后续列会自动生成对应的二进制位，如不需要使用ALU可以不填" sqref="P1:P1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(16进制)" prompt="输入RISC-V指令字的Opcode高5位16制数，后续隐藏列会自动生成该字段5位的二进制位" sqref="E2:E64"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="输出信号" sqref="Q1:T1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AluOP " prompt="AluOP 4位选择符二进制位_x000a_" sqref="Q2:T61" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="为1时填1，其他值不填_x000a__x000a_输入信号的标签用户可自行修改，也可在右侧自行增加列，新增控制信号" sqref="AG1:AM1048576 U26:AF1048576 U1:AF1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号情况" prompt="为1时填1，其他不填！" sqref="U2:AF25" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode" prompt="OpCode  6个二进制位" sqref="F62:F1048576 K1:O1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Func字段二进制位" prompt="Func字段6个二进制位" sqref="G2:J1048576 F2:F61" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Funct3(十进制)" prompt="输入RISC-V指令字的Funct3字段的10进制数，无Funct3字段不填，后续隐藏列会自动生成对应字段的二进制" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Funct7(十进制)" prompt="输入RISC-V指令字的Funct7字段的10进制数，如果不关心这个字段不填，如果Funct7字段用作区分Funct3字段相同的指令，这个字段必须填写，0值也需要填写，后续隐藏列会自动生成对应字段的二进制" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(10进制)" prompt="输入RISC-V指令字的Opcode高5位十进制数，后续隐藏列会自动生成该字段5位的二进制位" sqref="E1 E65:E1048576" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ALU_OP" prompt="请输入当前指令的AluOp十进制编码，后续列会自动生成对应的二进制位，如不需要使用ALU可以不填" sqref="P1:P1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(16进制)" prompt="输入RISC-V指令字的Opcode高5位16制数，后续隐藏列会自动生成该字段5位的二进制位" sqref="E2:E64" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7572,13 +7425,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:AX63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Y71" sqref="Y71"/>
     </sheetView>
@@ -11766,9 +11619,9 @@
         <f>IF(ISBLANK(真值表!C28),"",真值表!C28)</f>
         <v/>
       </c>
-      <c r="C28" s="37" t="str">
+      <c r="C28" s="37">
         <f>IF(ISBLANK(真值表!D28),"",真值表!D28)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="D28" s="36">
         <f>IF(ISBLANK(真值表!E28),"",真值表!E28)</f>
@@ -11784,15 +11637,15 @@
       </c>
       <c r="G28" s="55" t="str">
         <f>IF(真值表!H28=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H28=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H28" s="55" t="str">
         <f>IF(真值表!I28=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I28=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I28" s="55" t="str">
         <f>IF(真值表!J28=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J28=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F12&amp;</v>
       </c>
       <c r="J28" s="54" t="str">
         <f>IF(真值表!K28=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K28=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
@@ -11816,7 +11669,7 @@
       </c>
       <c r="O28" s="53" t="str">
         <f t="shared" si="1"/>
-        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P28" s="24" t="str">
         <f>IF(真值表!Q28=1,$O28&amp;"+","")</f>
@@ -11836,7 +11689,7 @@
       </c>
       <c r="T28" s="24" t="str">
         <f>IF(真值表!U28=1,$O28&amp;"+","")</f>
-        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="U28" s="24" t="str">
         <f>IF(真值表!V28=1,$O28&amp;"+","")</f>
@@ -11844,11 +11697,11 @@
       </c>
       <c r="V28" s="24" t="str">
         <f>IF(真值表!W28=1,$O28&amp;"+","")</f>
-        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W28" s="24" t="str">
         <f>IF(真值表!X28=1,$O28&amp;"+","")</f>
-        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X28" s="24" t="str">
         <f>IF(真值表!Y28=1,$O28&amp;"+","")</f>
@@ -11884,7 +11737,7 @@
       </c>
       <c r="AF28" s="24" t="str">
         <f>IF(真值表!AG28=1,$O28&amp;"+","")</f>
-        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AG28" s="24" t="str">
         <f>IF(真值表!AH28=1,$O28&amp;"+","")</f>
@@ -11892,7 +11745,7 @@
       </c>
       <c r="AH28" s="24" t="str">
         <f>IF(真值表!AI28=1,$O28&amp;"+","")</f>
-        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI28" s="24" t="str">
         <f>IF(真值表!AJ28=1,$O28&amp;"+","")</f>
@@ -16413,7 +16266,7 @@
       </c>
       <c r="T58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="U58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16421,11 +16274,11 @@
       </c>
       <c r="V58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="W58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="X58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16461,7 +16314,7 @@
       </c>
       <c r="AF58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AG58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16469,7 +16322,7 @@
       </c>
       <c r="AH58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AI58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16512,7 +16365,7 @@
       <c r="T59" t="str">
         <f>CONCATENATE(T2,T3,T4,T5,T6,T7,T8,T9,T10,T11,T12,T13,T14,T15,T16,T17,T18,T19,T20,T21,T22,T23,T24,T25,T26,T27,T28,T29,T30,T31,T32,T33,T34,T35,T36,T37,T38,T39,T40,T41,T42,T43,T44,T45,T46,T47,T48,T49,T50,T51,T52,T53,T54,T55,T56,T57,
 )</f>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="U59" t="str">
         <f t="shared" ref="U59:AX59" si="3">CONCATENATE(U2,U3,U4,U5,U6,U7,U8,U9,U10,U11,U12,U13,U14,U15,U16,U17,U18,U19,U20,U21,U22,U23,U24,U25,U26,U27,U28,U29,U30,U31,U32,U33,U34,U35,U36,U37,U38,U39,U40,U41,U42,U43,U44,U45,U46,U47,U48,U49,U50,U51,U52,U53,U54,U55,U56,U57,
@@ -16521,11 +16374,11 @@
       </c>
       <c r="V59" t="str">
         <f t="shared" si="3"/>
-        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W59" t="str">
         <f t="shared" si="3"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" si="3"/>
@@ -16561,7 +16414,7 @@
       </c>
       <c r="AF59" t="str">
         <f t="shared" si="3"/>
-        <v>~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AG59" t="str">
         <f t="shared" si="3"/>
@@ -16569,7 +16422,7 @@
       </c>
       <c r="AH59" t="str">
         <f t="shared" si="3"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI59" t="str">
         <f t="shared" si="3"/>
@@ -16672,40 +16525,35 @@
     <mergeCell ref="P61:AA61"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
-  <conditionalFormatting sqref="O1 AM59:AX59 P58:AL59">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+  <conditionalFormatting sqref="O1:AL1 AM59:AX59">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P60:AE60 P1:AE1 P64:AE1048576 P63 R63:AE63 P62:AE62 P2:AD3">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+  <conditionalFormatting sqref="P60:AE60 P62:AE62 P63 R63:AE63 P64:AE1048576">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF60:AI1048576 AF1:AL1">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AL57">
+  <conditionalFormatting sqref="P2:AL59">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4:AD57">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="AF60:AI1048576">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="688" yWindow="772" count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="逻辑表达式最小项" prompt="当前指令Opcode以及Func字段的逻辑表达式" sqref="O62:O1048576 O59:O60 O1:O57"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="AE1 AE60 AE62:AE1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="运算器功能选择端ALU_OP 的四位" prompt="S3 S2 S1 S0" sqref="P1:S1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选对应信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制该列的表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="Q64:Q1048576 Q62 P62:P1048576 P60 Q60 R60:S60 R62:S1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="用户自定义控制信号" prompt="可直接将前列公式复制过来即可" sqref="AF60:AI1048576 AF1:AL1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路。_x000a__x000a_另外重新筛选其他信号逻辑表达式时，应该先去掉原筛选！！！" sqref="U1:AD1 U59:AX59 P61 U60:AD60 T62:AD1048576 T1:T60 U2:AL58 P2:S59"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态状态位" prompt="次态状态位逻辑表达式生成" sqref="Q63"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="逻辑表达式最小项" prompt="当前指令Opcode以及Func字段的逻辑表达式" sqref="O62:O1048576 O59:O60 O1:O57" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="AE1 AE60 AE62:AE1048576" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="运算器功能选择端ALU_OP 的四位" prompt="S3 S2 S1 S0" sqref="P1:S1" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选对应信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制该列的表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="Q64:Q1048576 Q62 P62:P1048576 P60 Q60 R60:S60 R62:S1048576" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="用户自定义控制信号" prompt="可直接将前列公式复制过来即可" sqref="AF60:AI1048576 AF1:AL1" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路。_x000a__x000a_另外重新筛选其他信号逻辑表达式时，应该先去掉原筛选！！！" sqref="U1:AD1 U59:AX59 P61 U60:AD60 T62:AD1048576 T1:T60 U2:AL58 P2:S59" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态状态位" prompt="次态状态位逻辑表达式生成" sqref="Q63" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16714,7 +16562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -16892,7 +16740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
